--- a/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Reposts</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Post Length</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Punctuation_Count</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Hashtag_Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -481,6 +496,15 @@
       </c>
       <c r="F2" t="n">
         <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>332</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -506,6 +530,15 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="n">
+        <v>461</v>
+      </c>
+      <c r="H3" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,6 +563,15 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>371</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +596,15 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>314</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -577,6 +628,15 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>339</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -600,6 +660,15 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>381</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -623,6 +692,15 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>311</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -646,6 +724,15 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>420</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -669,6 +756,15 @@
       <c r="F10" t="n">
         <v>1</v>
       </c>
+      <c r="G10" t="n">
+        <v>381</v>
+      </c>
+      <c r="H10" t="n">
+        <v>16</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -691,6 +787,15 @@
       </c>
       <c r="F11" t="n">
         <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>275</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -718,6 +823,15 @@
       </c>
       <c r="F12" t="n">
         <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>720</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -747,6 +861,15 @@
       <c r="F13" t="n">
         <v>3</v>
       </c>
+      <c r="G13" t="n">
+        <v>1058</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -769,6 +892,15 @@
       </c>
       <c r="F14" t="n">
         <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>150</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -797,6 +929,15 @@
       </c>
       <c r="F15" t="n">
         <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>541</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -828,6 +969,15 @@
       <c r="F16" t="n">
         <v>2</v>
       </c>
+      <c r="G16" t="n">
+        <v>1476</v>
+      </c>
+      <c r="H16" t="n">
+        <v>37</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -856,6 +1006,15 @@
       <c r="F17" t="n">
         <v>12</v>
       </c>
+      <c r="G17" t="n">
+        <v>934</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +1038,15 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>359</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -906,6 +1074,15 @@
       </c>
       <c r="F19" t="n">
         <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>528</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -942,6 +1119,15 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>1071</v>
+      </c>
+      <c r="H20" t="n">
+        <v>28</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -973,6 +1159,15 @@
       <c r="F21" t="n">
         <v>2</v>
       </c>
+      <c r="G21" t="n">
+        <v>1604</v>
+      </c>
+      <c r="H21" t="n">
+        <v>39</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1000,6 +1195,15 @@
       </c>
       <c r="F22" t="n">
         <v>2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>31</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1030,6 +1234,15 @@
       </c>
       <c r="F23" t="n">
         <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1567</v>
+      </c>
+      <c r="H23" t="n">
+        <v>52</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1063,6 +1276,15 @@
       <c r="F24" t="n">
         <v>1</v>
       </c>
+      <c r="G24" t="n">
+        <v>1385</v>
+      </c>
+      <c r="H24" t="n">
+        <v>37</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1089,6 +1311,15 @@
       </c>
       <c r="F25" t="n">
         <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>535</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1119,6 +1350,15 @@
       <c r="F26" t="n">
         <v>3</v>
       </c>
+      <c r="G26" t="n">
+        <v>978</v>
+      </c>
+      <c r="H26" t="n">
+        <v>33</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1148,6 +1388,15 @@
       <c r="F27" t="n">
         <v>1</v>
       </c>
+      <c r="G27" t="n">
+        <v>789</v>
+      </c>
+      <c r="H27" t="n">
+        <v>34</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1174,6 +1423,15 @@
       <c r="F28" t="n">
         <v>2</v>
       </c>
+      <c r="G28" t="n">
+        <v>478</v>
+      </c>
+      <c r="H28" t="n">
+        <v>20</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1200,6 +1458,15 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="n">
+        <v>513</v>
+      </c>
+      <c r="H29" t="n">
+        <v>16</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1224,6 +1491,15 @@
       </c>
       <c r="F30" t="n">
         <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>488</v>
+      </c>
+      <c r="H30" t="n">
+        <v>26</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1250,6 +1526,15 @@
       </c>
       <c r="F31" t="n">
         <v>2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>370</v>
+      </c>
+      <c r="H31" t="n">
+        <v>18</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1279,6 +1564,15 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="G32" t="n">
+        <v>664</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22</v>
+      </c>
+      <c r="I32" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1304,6 +1598,15 @@
       </c>
       <c r="F33" t="n">
         <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>454</v>
+      </c>
+      <c r="H33" t="n">
+        <v>15</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1334,6 +1637,15 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
+      <c r="G34" t="n">
+        <v>1219</v>
+      </c>
+      <c r="H34" t="n">
+        <v>35</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1359,6 +1671,15 @@
       </c>
       <c r="F35" t="n">
         <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>455</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -1389,6 +1710,15 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
+      <c r="G36" t="n">
+        <v>555</v>
+      </c>
+      <c r="H36" t="n">
+        <v>23</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1413,6 +1743,15 @@
       </c>
       <c r="F37" t="n">
         <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>404</v>
+      </c>
+      <c r="H37" t="n">
+        <v>17</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1439,6 +1778,15 @@
       </c>
       <c r="F38" t="n">
         <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>594</v>
+      </c>
+      <c r="H38" t="n">
+        <v>30</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1473,6 +1821,15 @@
       <c r="F39" t="n">
         <v>8</v>
       </c>
+      <c r="G39" t="n">
+        <v>870</v>
+      </c>
+      <c r="H39" t="n">
+        <v>34</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1500,6 +1857,15 @@
       </c>
       <c r="F40" t="n">
         <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>776</v>
+      </c>
+      <c r="H40" t="n">
+        <v>26</v>
+      </c>
+      <c r="I40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -1532,6 +1898,15 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="G41" t="n">
+        <v>907</v>
+      </c>
+      <c r="H41" t="n">
+        <v>39</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1559,6 +1934,15 @@
       </c>
       <c r="F42" t="n">
         <v>5</v>
+      </c>
+      <c r="G42" t="n">
+        <v>935</v>
+      </c>
+      <c r="H42" t="n">
+        <v>29</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1591,6 +1975,15 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
+      <c r="G43" t="n">
+        <v>873</v>
+      </c>
+      <c r="H43" t="n">
+        <v>35</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1621,6 +2014,15 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
+      <c r="G44" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H44" t="n">
+        <v>40</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1650,6 +2052,15 @@
       <c r="F45" t="n">
         <v>0</v>
       </c>
+      <c r="G45" t="n">
+        <v>1054</v>
+      </c>
+      <c r="H45" t="n">
+        <v>33</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1672,6 +2083,15 @@
       </c>
       <c r="F46" t="n">
         <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>155</v>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -1701,6 +2121,15 @@
       <c r="F47" t="n">
         <v>2</v>
       </c>
+      <c r="G47" t="n">
+        <v>988</v>
+      </c>
+      <c r="H47" t="n">
+        <v>35</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1728,6 +2157,15 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
+      <c r="G48" t="n">
+        <v>859</v>
+      </c>
+      <c r="H48" t="n">
+        <v>29</v>
+      </c>
+      <c r="I48" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1753,6 +2191,15 @@
       </c>
       <c r="F49" t="n">
         <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>557</v>
+      </c>
+      <c r="H49" t="n">
+        <v>23</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50">
@@ -1784,6 +2231,15 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
+      <c r="G50" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H50" t="n">
+        <v>38</v>
+      </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1810,6 +2266,15 @@
       </c>
       <c r="F51" t="n">
         <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>724</v>
+      </c>
+      <c r="H51" t="n">
+        <v>22</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="52">
@@ -1845,6 +2310,15 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
+      <c r="G52" t="n">
+        <v>1932</v>
+      </c>
+      <c r="H52" t="n">
+        <v>43</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1873,6 +2347,15 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
+      <c r="G53" t="n">
+        <v>758</v>
+      </c>
+      <c r="H53" t="n">
+        <v>26</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1899,6 +2382,15 @@
       </c>
       <c r="F54" t="n">
         <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>896</v>
+      </c>
+      <c r="H54" t="n">
+        <v>21</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1930,6 +2422,15 @@
       <c r="F55" t="n">
         <v>5</v>
       </c>
+      <c r="G55" t="n">
+        <v>1230</v>
+      </c>
+      <c r="H55" t="n">
+        <v>35</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1950,6 +2451,15 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>48</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1979,6 +2489,15 @@
       </c>
       <c r="F57" t="n">
         <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>710</v>
+      </c>
+      <c r="H57" t="n">
+        <v>27</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2009,6 +2528,15 @@
       </c>
       <c r="F58" t="n">
         <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>884</v>
+      </c>
+      <c r="H58" t="n">
+        <v>24</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -2046,6 +2574,15 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
+      <c r="G59" t="n">
+        <v>1207</v>
+      </c>
+      <c r="H59" t="n">
+        <v>51</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2074,6 +2611,15 @@
       <c r="F60" t="n">
         <v>1</v>
       </c>
+      <c r="G60" t="n">
+        <v>673</v>
+      </c>
+      <c r="H60" t="n">
+        <v>21</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2098,6 +2644,15 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>497</v>
+      </c>
+      <c r="H61" t="n">
+        <v>11</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,6 +2682,15 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
+      <c r="G62" t="n">
+        <v>556</v>
+      </c>
+      <c r="H62" t="n">
+        <v>20</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2151,6 +2715,15 @@
       </c>
       <c r="F63" t="n">
         <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>351</v>
+      </c>
+      <c r="H63" t="n">
+        <v>15</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -2179,6 +2752,15 @@
       <c r="F64" t="n">
         <v>0</v>
       </c>
+      <c r="G64" t="n">
+        <v>690</v>
+      </c>
+      <c r="H64" t="n">
+        <v>26</v>
+      </c>
+      <c r="I64" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2203,6 +2785,15 @@
       </c>
       <c r="F65" t="n">
         <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>499</v>
+      </c>
+      <c r="H65" t="n">
+        <v>19</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -2230,6 +2821,15 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
+      <c r="G66" t="n">
+        <v>481</v>
+      </c>
+      <c r="H66" t="n">
+        <v>16</v>
+      </c>
+      <c r="I66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2254,6 +2854,15 @@
       </c>
       <c r="F67" t="n">
         <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>524</v>
+      </c>
+      <c r="H67" t="n">
+        <v>17</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -2282,6 +2891,15 @@
       <c r="F68" t="n">
         <v>0</v>
       </c>
+      <c r="G68" t="n">
+        <v>959</v>
+      </c>
+      <c r="H68" t="n">
+        <v>32</v>
+      </c>
+      <c r="I68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2306,6 +2924,15 @@
       </c>
       <c r="F69" t="n">
         <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>627</v>
+      </c>
+      <c r="H69" t="n">
+        <v>30</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -2336,6 +2963,15 @@
       <c r="F70" t="n">
         <v>0</v>
       </c>
+      <c r="G70" t="n">
+        <v>875</v>
+      </c>
+      <c r="H70" t="n">
+        <v>27</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2363,6 +2999,15 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
+      <c r="G71" t="n">
+        <v>689</v>
+      </c>
+      <c r="H71" t="n">
+        <v>23</v>
+      </c>
+      <c r="I71" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2390,6 +3035,15 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
+      <c r="G72" t="n">
+        <v>578</v>
+      </c>
+      <c r="H72" t="n">
+        <v>21</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2416,6 +3070,15 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
+      <c r="G73" t="n">
+        <v>493</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19</v>
+      </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2439,6 +3102,15 @@
       </c>
       <c r="F74" t="n">
         <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>442</v>
+      </c>
+      <c r="H74" t="n">
+        <v>15</v>
+      </c>
+      <c r="I74" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -2464,6 +3136,15 @@
       </c>
       <c r="F75" t="n">
         <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>734</v>
+      </c>
+      <c r="H75" t="n">
+        <v>23</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -2491,6 +3172,15 @@
       <c r="F76" t="n">
         <v>0</v>
       </c>
+      <c r="G76" t="n">
+        <v>646</v>
+      </c>
+      <c r="H76" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2517,6 +3207,15 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
+      <c r="G77" t="n">
+        <v>880</v>
+      </c>
+      <c r="H77" t="n">
+        <v>28</v>
+      </c>
+      <c r="I77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2541,6 +3240,15 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>371</v>
+      </c>
+      <c r="H78" t="n">
+        <v>11</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2571,6 +3279,15 @@
       <c r="F79" t="n">
         <v>1</v>
       </c>
+      <c r="G79" t="n">
+        <v>649</v>
+      </c>
+      <c r="H79" t="n">
+        <v>22</v>
+      </c>
+      <c r="I79" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2596,6 +3313,15 @@
       </c>
       <c r="F80" t="n">
         <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>588</v>
+      </c>
+      <c r="H80" t="n">
+        <v>21</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -2624,6 +3350,15 @@
       <c r="F81" t="n">
         <v>1</v>
       </c>
+      <c r="G81" t="n">
+        <v>442</v>
+      </c>
+      <c r="H81" t="n">
+        <v>20</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2649,6 +3384,15 @@
       </c>
       <c r="F82" t="n">
         <v>2</v>
+      </c>
+      <c r="G82" t="n">
+        <v>589</v>
+      </c>
+      <c r="H82" t="n">
+        <v>26</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="83">
@@ -2676,6 +3420,15 @@
       </c>
       <c r="F83" t="n">
         <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>427</v>
+      </c>
+      <c r="H83" t="n">
+        <v>21</v>
+      </c>
+      <c r="I83" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="84">
@@ -2704,6 +3457,15 @@
       </c>
       <c r="F84" t="n">
         <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>931</v>
+      </c>
+      <c r="H84" t="n">
+        <v>28</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -2736,6 +3498,15 @@
       <c r="F85" t="n">
         <v>0</v>
       </c>
+      <c r="G85" t="n">
+        <v>907</v>
+      </c>
+      <c r="H85" t="n">
+        <v>39</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2763,6 +3534,15 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>524</v>
+      </c>
+      <c r="H86" t="n">
+        <v>28</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2789,6 +3569,15 @@
       <c r="F87" t="n">
         <v>2</v>
       </c>
+      <c r="G87" t="n">
+        <v>474</v>
+      </c>
+      <c r="H87" t="n">
+        <v>20</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1274 +436,1838 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Posts</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Impressions</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Likes</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Reposts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Post Length</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Punctuation_Count</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Hashtag_Count</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Posts_Analysis</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_category</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Proud to work alongside our mission-driven partners to provide inclusive and affordable housing options with wrap-around services. 2024 is looking bright! We are grateful to LGA Partners, Mosites Construction and Development Company, ACTION-Housing, Inc.,Pittsburgh Mercy, Montague Design, and many others!
-https://lnkd.in/dzhQ9sim</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>proud to work alongside our mission-driven partners to provide inclusive and affordable housing options with wrap-around services. 2024 is looking bright! we are grateful to lga partners, mosites construction and development company, action-housing, inc.,pittsburgh mercy, montague design, and many others!
+https://lnkd.in/dzhq9sim</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>959</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>37</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>332</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>18</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>proud work alongside mission-driven partners provide inclusive affordable housing options wrap-around services . 2024 looking bright ! grateful lga partners , mosites construction development company , action-housing , inc. , pittsburgh mercy , montague design , many others ! https : //lnkd.in/dzhq9sim</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9018</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>#GivingTuesday is almost over. This is your last chance to make a life-changing difference and provide a higher standard of living for the residents of Bethlehem Haven. In spring 2024, our newly refurbished 1410 Fifth Ave. facility will open. We need your help to furnish the rooms. Do not delay. Click the link and donate now so the unhoused women in our region have a room of their own.  
-https://lnkd.in/eAeAJv5Y
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>#givingtuesday is almost over. this is your last chance to make a life-changing difference and provide a higher standard of living for the residents of bethlehem haven. in spring 2024, our newly refurbished 1410 fifth ave. facility will open. we need your help to furnish the rooms. do not delay. click the link and donate now so the unhoused women in our region have a room of their own.  
+https://lnkd.in/eaeajv5y
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>69</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>461</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>18</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>4</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t># givingtuesday almost . last chance make life-changing difference provide higher standard living residents bethlehem . spring 2024 , newly refurbished 1410 fifth ave. facility open . need help furnish rooms . delay . click link donate unhoused women region room . https : //lnkd.in/eaeajv5y # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2782</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Towels. Bedding. Toiletries. A refrigerator. Do you have any of these items? The unhoused women in our region do not. We are halfway through #GivingTuesday. The women we serve need your support TODAY! 💸 Click the link below and donate now so the unhoused women in our region have a room of their own.
-https://lnkd.in/eAeAJv5Y
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>towels. bedding. toiletries. a refrigerator. do you have any of these items? the unhoused women in our region do not. we are halfway through #givingtuesday. the women we serve need your support today! 💸 click the link below and donate now so the unhoused women in our region have a room of their own.
+https://lnkd.in/eaeajv5y
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>62</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>371</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>18</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>towels . bedding . toiletries . refrigerator . items ? unhoused women region . halfway # givingtuesday . women serve need support today ! 💸 click link donate unhoused women region room . https : //lnkd.in/eaeajv5y # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4574</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TODAY is #GivingTuesday. The women we serve at Bethlehem Haven need your support so they can have a “room of her own” to call home🏡. Click the link below and donate now so the unhoused women in our region have a community of care to call home.
-https://lnkd.in/eAeAJv5Y
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>today is #givingtuesday. the women we serve at bethlehem haven need your support so they can have a “room of her own” to call home🏡. click the link below and donate now so the unhoused women in our region have a community of care to call home.
+https://lnkd.in/eaeajv5y
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>314</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>12</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>4</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>today # givingtuesday . women serve bethlehem need support “ room ” call home🏡 . click link donate unhoused women region community care call home . https : //lnkd.in/eaeajv5y # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7096</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Do you believe that the unhoused women in our region deserve a “Room of Her Own” to call home🏡? Join us tomorrow, #GivingTuesday, by making a needed donation to furnish the rooms for the residents of Bethlehem Haven’s new 1410 Fifth Ave. facility. Click to learn more: https://lnkd.in/eCrD2yuc
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>do you believe that the unhoused women in our region deserve a “room of her own” to call home🏡? join us tomorrow, #givingtuesday, by making a needed donation to furnish the rooms for the residents of bethlehem haven’s new 1410 fifth ave. facility. click to learn more: https://lnkd.in/ecrd2yuc
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>86</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>339</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>15</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>4</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>believe unhoused women region deserve “ room ” call home🏡 ? join us tomorrow , # givingtuesday , making needed donation furnish rooms residents bethlehem ’ new 1410 fifth ave. facility . click learn : https : //lnkd.in/ecrd2yuc # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>This year, our transformative renovations of 1410 Fifth Ave. will provide a of care🏘️ and a higher standard of living for unhoused women – many of whom are 55 or older and navigating physical or mental challenges. Join us and help furnish a room for a resident on Giving Tuesday - Nov. 28. Click to learn more: https://lnkd.in/eCrD2yuc
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>this year, our transformative renovations of 1410 fifth ave. will provide a of care🏘️ and a higher standard of living for unhoused women – many of whom are 55 or older and navigating physical or mental challenges. join us and help furnish a room for a resident on giving tuesday - nov. 28. click to learn more: https://lnkd.in/ecrd2yuc
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>56</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>381</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>15</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>year , transformative renovations 1410 fifth ave. provide care🏘️ higher standard living unhoused women – many 55 older navigating physical mental challenges . join us help furnish room resident giving tuesday - nov. 28. click learn : https : //lnkd.in/ecrd2yuc # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>This Black Friday, give the ultimate gift🎁. House the unhoused. Provide the residents of Bethlehem Haven with rooms of their own at 1410 Fifth Ave. Join us and help furnish or sponsor a room on Giving Tuesday - Nov. 28. Click to learn more: https://lnkd.in/eCrD2yuc
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>this black friday, give the ultimate gift🎁. house the unhoused. provide the residents of bethlehem haven with rooms of their own at 1410 fifth ave. join us and help furnish or sponsor a room on giving tuesday - nov. 28. click to learn more: https://lnkd.in/ecrd2yuc
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>55</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>311</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>16</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>black friday , give ultimate gift🎁 . house unhoused . provide residents bethlehem rooms 1410 fifth ave. join us help furnish sponsor room giving tuesday - nov. 28. click learn : https : //lnkd.in/ecrd2yuc # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>A bed, nightstand, refrigerator, light fixtures, hot water. Is that what you are thankful for this holiday season🙏? The homeless we serve are. Join us on Nov. 28 for Giving Tuesday by providing the women at Bethlehem Haven with the everyday conveniences to change their lives and support them on the pathway to self-sufficiency. Click to learn more: https://lnkd.in/eCrD2yuc
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>a bed, nightstand, refrigerator, light fixtures, hot water. is that what you are thankful for this holiday season🙏? the homeless we serve are. join us on nov. 28 for giving tuesday by providing the women at bethlehem haven with the everyday conveniences to change their lives and support them on the pathway to self-sufficiency. click to learn more: https://lnkd.in/ecrd2yuc
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>81</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>420</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>19</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>3</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>bed , nightstand , refrigerator , light fixtures , hot water . thankful holiday season🙏 ? homeless serve . join us nov. 28 giving tuesday providing women bethlehem everyday conveniences change lives support pathway self-sufficiency . click learn : https : //lnkd.in/ecrd2yuc # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>0.9136</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Put yourself in her shoes🚺. You’re 55 or older. You are navigating physical or mental challenges.   You’re homeless – without a room of your own. These scenarios are real. You have the power to change that on Nov. 28 for Giving Tuesday by providing each of these women a “Room of Her Own.” Click to learn more. https://lnkd.in/eCrD2yuc
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>put yourself in her shoes🚺. you’re 55 or older. you are navigating physical or mental challenges.   you’re homeless – without a room of your own. these scenarios are real. you have the power to change that on nov. 28 for giving tuesday by providing each of these women a “room of her own.” click to learn more. https://lnkd.in/ecrd2yuc
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>93</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>1</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>381</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>16</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>3</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>put shoes🚺 . ’ 55 older . navigating physical mental challenges . ’ homeless – without room . scenarios real . power change nov. 28 giving tuesday providing women “ room own. ” click learn . https : //lnkd.in/ecrd2yuc # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4019</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Be a hero on Nov. 28.  Help us curate a “Room of her Own” in our region🏡. Together, we can build a strong foundation for these women and provide them with a path to self-sufficiency.  Click to learn more. https://lnkd.in/eCrD2yuc
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>be a hero on nov. 28.  help us curate a “room of her own” in our region🏡. together, we can build a strong foundation for these women and provide them with a path to self-sufficiency.  click to learn more. https://lnkd.in/ecrd2yuc
 #givingtuesday #givebigpgh #givebigpittsburgh</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>87</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>275</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>15</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>3</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>hero nov. 28. help us curate “ room ” region🏡 . together , build strong foundation women provide path self-sufficiency . click learn . https : //lnkd.in/ecrd2yuc # givingtuesday # givebigpgh # givebigpittsburgh</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>0.8625</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What an incredible night! Thank you to Natalie Bencivenga for emceeing the Legacy-Making Housewarming Gala on Oct. 25 at Hotel Monaco, Downtown. We are truly inspired by the generosity of so many coming together to renovate Bethlehem Haven's 1410 building so all 26 guests can have a beautiful room of their own. 
-If you want to support this important project which is an innovative step to ending homelessness in our communities, you can visit the Bethlehem Haven website and purchase an item from the housewarming registry. 
-We see you. Let's build a strong foundation together. 
-DONATE HERE: https://lnkd.in/ewipY2AV
-#BethlehemHaven #EndHomelessness #WeSeeYou #HousewarmingParty #LegacyMaking #NatalieBencivenga 
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">what an incredible night! thank you to natalie bencivenga for emceeing the legacy-making housewarming gala on oct. 25 at hotel monaco, downtown. we are truly inspired by the generosity of so many coming together to renovate bethlehem haven's 1410 building so all 26 guests can have a beautiful room of their own. 
+if you want to support this important project which is an innovative step to ending homelessness in our communities, you can visit the bethlehem haven website and purchase an item from the housewarming registry. 
+we see you. let's build a strong foundation together. 
+donate here: https://lnkd.in/ewipy2av
+#bethlehemhaven #endhomelessness #weseeyou #housewarmingparty #legacymaking #nataliebencivenga 
 </t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>304</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>13</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>720</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>24</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>6</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>incredible night ! thank natalie bencivenga emceeing legacy-making housewarming gala oct. 25 hotel monaco , downtown . truly inspired generosity many coming together renovate bethlehem 's 1410 building 26 guests beautiful room . want support important project innovative step ending homelessness communities , visit bethlehem website purchase item housewarming registry . see . let 's build strong foundation together . donate : https : //lnkd.in/ewipy2av # bethlehemhaven # endhomelessness # weseeyou # housewarmingparty # legacymaking # nataliebencivenga</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Bethlehem Haven shared a glimpse of the renovation and the life-changing work of the organization during its mission-driven event, 
-A Legacy-Making Housewarming Gala, on Wednesday, Oct. 25, at Hotel Monaco, Downtown. 
-Bethlehem Haven is transforming its supportive housing at 1410 Fifth Ave. in Pittsburgh’s Uptown neighborhood into a higher standard of living for the 26 unhoused women – many of whom are 55 or older and navigating physical or mental challenges – who call it their long-term home. 
-The event honored John Lovelace, longtime board member and champion of Bethlehem Haven’s mission, who spoke of “finding what you feel passionate about and giving to that cause.”
-Guests were encouraged to participate in the Housewarming Registry and buy items to furnish the rooms designed by Catherine Montague of Montague Designs. 
-Missed the gala but still want to support "A Room of Her Own" and help furnish the new rooms at 1410? Visit our website! https://lnkd.in/ewipY2AV
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bethlehem haven shared a glimpse of the renovation and the life-changing work of the organization during its mission-driven event, 
+a legacy-making housewarming gala, on wednesday, oct. 25, at hotel monaco, downtown. 
+bethlehem haven is transforming its supportive housing at 1410 fifth ave. in pittsburgh’s uptown neighborhood into a higher standard of living for the 26 unhoused women – many of whom are 55 or older and navigating physical or mental challenges – who call it their long-term home. 
+the event honored john lovelace, longtime board member and champion of bethlehem haven’s mission, who spoke of “finding what you feel passionate about and giving to that cause.”
+guests were encouraged to participate in the housewarming registry and buy items to furnish the rooms designed by catherine montague of montague designs. 
+missed the gala but still want to support "a room of her own" and help furnish the new rooms at 1410? visit our website! https://lnkd.in/ewipy2av
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>820</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>1058</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>32</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>6</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>bethlehem shared glimpse renovation life-changing work organization mission-driven event , legacy-making housewarming gala , wednesday , oct. 25 , hotel monaco , downtown . bethlehem transforming supportive housing 1410 fifth ave. pittsburgh ’ uptown neighborhood higher standard living 26 unhoused women – many 55 older navigating physical mental challenges – call long-term home . event honored john lovelace , longtime board member champion bethlehem ’ mission , spoke “ finding feel passionate giving cause. ” guests encouraged participate housewarming registry buy items furnish rooms designed catherine montague montague designs . missed gala still want support `` room '' help furnish new rooms 1410 ? visit website ! https : //lnkd.in/ewipy2av # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9741</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>A little magic from Wednesday's Legacy-Making Housewarming Gala! More to come so stay tuned! 
-#EndHomelessness #ARoomOfHerOwn #LegacyMaking #WeSeeYou</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>a little magic from wednesday's legacy-making housewarming gala! more to come so stay tuned! 
+#endhomelessness #aroomofherown #legacymaking #weseeyou</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>149</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>9</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>150</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>8</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>little magic wednesday 's legacy-making housewarming gala ! come stay tuned ! # endhomelessness # aroomofherown # legacymaking # weseeyou</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Thank you to our presenting sponsor, Mosites Construction and Development Company and to our other wonderful sponsors for tonight’s Legacy Housewarming Gala including: 
-Highmark Wholecare, UPMC Health Plan, Montague Design, LGA Partners and SIGAL Development Services LLC.
-We see you.
-Let’s build a strong foundation together! 
-To be a part of this transformative experience happening TONIGHT you can purchase your tickets below: 
-https://lnkd.in/ewipY2AV
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>thank you to our presenting sponsor, mosites construction and development company and to our other wonderful sponsors for tonight’s legacy housewarming gala including: 
+highmark wholecare, upmc health plan, montague design, lga partners and sigal development services llc.
+we see you.
+let’s build a strong foundation together! 
+to be a part of this transformative experience happening tonight you can purchase your tickets below: 
+https://lnkd.in/ewipy2av
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>192</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
         <v>541</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>20</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>6</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>thank presenting sponsor , mosites construction development company wonderful sponsors tonight ’ legacy housewarming gala including : highmark wholecare , upmc health plan , montague design , lga partners sigal development services llc . see . let ’ build strong foundation together ! part transformative experience happening tonight purchase tickets : https : //lnkd.in/ewipy2av # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8687</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Learn more about the people making the 1410 Fifth Ave. renovation go from a dream to reality! 
-Bethlehem Haven is transforming its supportive housing at 1410 Fifth Ave. in Pittsburgh’s Uptown neighborhood into a higher standard of living for the 26 unhoused women – many of whom are 55 or older and navigating physical or mental challenges – who call it their long-term home. 
-To help make this house a home, Bethlehem Haven has teamed with Catherine Montague the founder and principal designer of Pittsburgh-based Montague Design, to source the soft furnishings, storage and other decor elements to offer the building’s residents a higher standard of living. 
-LGA Partners designed the space and addressed the needs of the interior space with Bethlehem Haven and its consultants. To dress up these spaces with furnishings, storage and a sense of home, Bethlehem Haven’s collaboration with Montague Design has three goals: to provide each long-term resident with a sense of self, equity and pride.
-“They were excited to be involved. They had some good suggestions,” Montague says. “We were able to communicate with them and really bring a sense that they are being listened to. These are not rooms that are being put on them. They are participating in the process.”
-To be a part of this transformative experience: 
-https://lnkd.in/ewipY2AV
-We see you. Let’s build a strong foundation together. 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>learn more about the people making the 1410 fifth ave. renovation go from a dream to reality! 
+bethlehem haven is transforming its supportive housing at 1410 fifth ave. in pittsburgh’s uptown neighborhood into a higher standard of living for the 26 unhoused women – many of whom are 55 or older and navigating physical or mental challenges – who call it their long-term home. 
+to help make this house a home, bethlehem haven has teamed with catherine montague the founder and principal designer of pittsburgh-based montague design, to source the soft furnishings, storage and other decor elements to offer the building’s residents a higher standard of living. 
+lga partners designed the space and addressed the needs of the interior space with bethlehem haven and its consultants. to dress up these spaces with furnishings, storage and a sense of home, bethlehem haven’s collaboration with montague design has three goals: to provide each long-term resident with a sense of self, equity and pride.
+“they were excited to be involved. they had some good suggestions,” montague says. “we were able to communicate with them and really bring a sense that they are being listened to. these are not rooms that are being put on them. they are participating in the process.”
+to be a part of this transformative experience: 
+https://lnkd.in/ewipy2av
+we see you. let’s build a strong foundation together. 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>244</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>1476</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>37</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>learn people making 1410 fifth ave. renovation go dream reality ! bethlehem transforming supportive housing 1410 fifth ave. pittsburgh ’ uptown neighborhood higher standard living 26 unhoused women – many 55 older navigating physical mental challenges – call long-term home . help make house home , bethlehem teamed catherine montague founder principal designer pittsburgh-based montague design , source soft furnishings , storage decor elements offer building ’ residents higher standard living . lga partners designed space addressed needs interior space bethlehem consultants . dress spaces furnishings , storage sense home , bethlehem ’ collaboration montague design three goals : provide long-term resident sense self , equity pride . “ excited involved . good suggestions , ” montague says . “ able communicate really bring sense listened . rooms put . participating process. ” part transformative experience : https : //lnkd.in/ewipy2av see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9476</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#DidYouKnow 
-Bethlehem Haven is holding the Legacy-Making Housewarming Gala at Hotel Monaco, Downtown, on Wednesday, Oct. 25— and you're invited! 
-Join our emcee, Natalie Bencivenga, for what is sure to be an impactful and meaningful night! 
-Funds raised will help provide furnishings and home essentials for the 26 women of 1410 Fifth Ave., ensuring they have a safe, comfortable and beautiful place to call their own. 
-This gala will offer guests a meaningful evening as Bethlehem Haven shares a glimpse of the renovation and the life-changing work of the organization and its staff, who support 24/7 the 1410 Fifth Ave. residents - many of whom are 55 or older and navigating physical or mental challenges. The dress code is upscale office or cocktail attire.
-We see you. Let’s build a strong foundation together. 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #NatalieBencivenga #FifthInfluence </t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#didyouknow 
+bethlehem haven is holding the legacy-making housewarming gala at hotel monaco, downtown, on wednesday, oct. 25— and you're invited! 
+join our emcee, natalie bencivenga, for what is sure to be an impactful and meaningful night! 
+funds raised will help provide furnishings and home essentials for the 26 women of 1410 fifth ave., ensuring they have a safe, comfortable and beautiful place to call their own. 
+this gala will offer guests a meaningful evening as bethlehem haven shares a glimpse of the renovation and the life-changing work of the organization and its staff, who support 24/7 the 1410 fifth ave. residents - many of whom are 55 or older and navigating physical or mental challenges. the dress code is upscale office or cocktail attire.
+we see you. let’s build a strong foundation together. 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #nataliebencivenga #fifthinfluence </t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>681</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>12</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>934</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>32</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>9</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t># didyouknow bethlehem holding legacy-making housewarming gala hotel monaco , downtown , wednesday , oct. 25— 're invited ! join emcee , natalie bencivenga , sure impactful meaningful night ! funds raised help provide furnishings home essentials 26 women 1410 fifth ave. , ensuring safe , comfortable beautiful place call . gala offer guests meaningful evening bethlehem shares glimpse renovation life-changing work organization staff , support 24/7 1410 fifth ave. residents - many 55 older navigating physical mental challenges . dress code upscale office cocktail attire . see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # nataliebencivenga # fifthinfluence</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Thank you to Natalie Bencivenga for having Annette Fetchko, executive director of Bethlehem Haven, on to discuss homelessness in our communities, what is being done to find solutions and details about the upcoming gala on Oct. 25.
-We see you. Let's build a strong foundation together.
-https://lnkd.in/ew4czMmU
-Tickets for the gala: https://lnkd.in/ewipY2AV</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>thank you to natalie bencivenga for having annette fetchko, executive director of bethlehem haven, on to discuss homelessness in our communities, what is being done to find solutions and details about the upcoming gala on oct. 25.
+we see you. let's build a strong foundation together.
+https://lnkd.in/ew4czmmu
+tickets for the gala: https://lnkd.in/ewipy2av</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>147</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>7</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>359</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>19</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>thank natalie bencivenga annette fetchko , executive director bethlehem , discuss homelessness communities , done find solutions details upcoming gala oct. 25. see . let 's build strong foundation together . https : //lnkd.in/ew4czmmu tickets gala : https : //lnkd.in/ewipy2av</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7579</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TODAY: Annette Fetchko, Executive Director of Bethlehem Haven, will join host Natalie Bencivenga on her new KDKA radio show, “In Conversation with Natalie Bencivenga.” They will talk about homelessness and the creative solutions Bethlehem Haven is working on to help end this crisis in our communities. 
-Tune in on www.audacy.com/kdkaradio or on 
-100.1 FM /1020 AM @kdkaradio this Saturday from 2 to 5pm! 
-You can also stream it on the Audacy app!
-#BethlehemHaven #NatalieBencivenga #AnnetteFetchko #EndHomelessness #WeSeeYou</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>today: annette fetchko, executive director of bethlehem haven, will join host natalie bencivenga on her new kdka radio show, “in conversation with natalie bencivenga.” they will talk about homelessness and the creative solutions bethlehem haven is working on to help end this crisis in our communities. 
+tune in on www.audacy.com/kdkaradio or on 
+100.1 fm /1020 am @kdkaradio this saturday from 2 to 5pm! 
+you can also stream it on the audacy app!
+#bethlehemhaven #nataliebencivenga #annettefetchko #endhomelessness #weseeyou</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>512</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>2</v>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
         <v>528</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>19</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>5</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>today : annette fetchko , executive director bethlehem , join host natalie bencivenga new kdka radio show , “ conversation natalie bencivenga. ” talk homelessness creative solutions bethlehem working help end crisis communities . tune www.audacy.com/kdkaradio 100.1 fm /1020 @ kdkaradio saturday 2 5pm ! also stream audacy app ! # bethlehemhaven # nataliebencivenga # annettefetchko # endhomelessness # weseeyou</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0.6103</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you to our incredible volunteers who help make Bethlehem Haven such a special place. 
-Here is a list of just some of the wonderful people and organizations who supported the residents of Bethlehem Haven in September:
-⭐️ First Lutheran Church: Provided dinner for all three programs on Wednesdays
-⭐️ 412 Food Rescue: Provided bread and pastries for all three programs on Mondays
-⭐️ Sarah Zuckerman of Beth El of South Hills: Provided lunch for Haven Homes and the Medical Respite program
-⭐️ St. Joseph: Provided dinner for Haven Homes
-⭐️ Bara Griffith of St. Aidan: Provided dinner for the Shelter
-⭐️ Bethlehem Lutheran Church: Provided frozen entree meals and dessert for all three programs
-⭐️ Pat Wood of Blessed Trinity Parish: Provided dinner for Haven Homes
-⭐️ Monte North Hills Ladies Prayer Group: Provided snacks for all three programs
-⭐️ St. Aidan's Men's Fellowship Group: Cooked on the grill for lunch for Haven Homes
-Learn how you can get involved: https://lnkd.in/eiqPtXPp
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness 
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thank you to our incredible volunteers who help make bethlehem haven such a special place. 
+here is a list of just some of the wonderful people and organizations who supported the residents of bethlehem haven in september:
+⭐️ first lutheran church: provided dinner for all three programs on wednesdays
+⭐️ 412 food rescue: provided bread and pastries for all three programs on mondays
+⭐️ sarah zuckerman of beth el of south hills: provided lunch for haven homes and the medical respite program
+⭐️ st. joseph: provided dinner for haven homes
+⭐️ bara griffith of st. aidan: provided dinner for the shelter
+⭐️ bethlehem lutheran church: provided frozen entree meals and dessert for all three programs
+⭐️ pat wood of blessed trinity parish: provided dinner for haven homes
+⭐️ monte north hills ladies prayer group: provided snacks for all three programs
+⭐️ st. aidan's men's fellowship group: cooked on the grill for lunch for haven homes
+learn how you can get involved: https://lnkd.in/eiqptxpp
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness 
 </t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>110</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>1071</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>28</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>6</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>thank incredible volunteers help make bethlehem special place . list wonderful people organizations supported residents bethlehem september : ⭐️ first lutheran church : provided dinner three programs wednesdays ⭐️ 412 food rescue : provided bread pastries three programs mondays ⭐️ sarah zuckerman beth el south hills : provided lunch homes medical respite program ⭐️ st. joseph : provided dinner homes ⭐️ bara griffith st. aidan : provided dinner shelter ⭐️ bethlehem lutheran church : provided frozen entree meals dessert three programs ⭐️ pat wood blessed trinity parish : provided dinner homes ⭐️ monte north hills ladies prayer group : provided snacks three programs ⭐️ st. aidan 's men 's fellowship group : cooked grill lunch homes learn get involved : https : //lnkd.in/eiqptxpp # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STAFF SPOTLIGHT: 
-As Bethlehem Haven’s senior manager of operations, Amy Plant, M.A, CDP shoulders a lot of responsibilities, including the day-to-day operations and administrative aspects of homeless prevention programming, the women’s emergency shelter, the residential Haven Homes and CMI programs, the community River to Home and Haven Housing programs, Medical Respite, nutritional services and facilities management of all of Bethlehem Haven’s physical programs and the Mercy Uptown Wellness Clinic. 
-She noted that it’s an exciting time to be working with Bethlehem Haven because of the 1410 Fifth Ave. renovation project and other developments that will be coming to its Uptown facilities. 
-Bethlehem Haven’s evidenced-based approach to its work also has led it to become one of only four medical respite programs in the country to be selected for a pilot program to determine best practices for national certification with the National Institute for Medical Respite Care. 
-“Research has shown that a built environment directly and indirectly affects mental health,” Amy says, which is why the upgrades to 1410 Fifth Ave. are so important. 
-“By having access to upgraded private single occupancy rooms with the ability to choose furnishings and access increased amenities and supportive services, the women we serve will have increased autonomy, choice and control in a space that truly feels like home.”
-We see you. Let’s build a strong foundation together.
-Learn more about our work: 
-https://lnkd.in/ewipY2AV
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">staff spotlight: 
+as bethlehem haven’s senior manager of operations, amy plant, m.a, cdp shoulders a lot of responsibilities, including the day-to-day operations and administrative aspects of homeless prevention programming, the women’s emergency shelter, the residential haven homes and cmi programs, the community river to home and haven housing programs, medical respite, nutritional services and facilities management of all of bethlehem haven’s physical programs and the mercy uptown wellness clinic. 
+she noted that it’s an exciting time to be working with bethlehem haven because of the 1410 fifth ave. renovation project and other developments that will be coming to its uptown facilities. 
+bethlehem haven’s evidenced-based approach to its work also has led it to become one of only four medical respite programs in the country to be selected for a pilot program to determine best practices for national certification with the national institute for medical respite care. 
+“research has shown that a built environment directly and indirectly affects mental health,” amy says, which is why the upgrades to 1410 fifth ave. are so important. 
+“by having access to upgraded private single occupancy rooms with the ability to choose furnishings and access increased amenities and supportive services, the women we serve will have increased autonomy, choice and control in a space that truly feels like home.”
+we see you. let’s build a strong foundation together.
+learn more about our work: 
+https://lnkd.in/ewipy2av
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>234</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>8</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>1604</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>39</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>6</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>staff spotlight : bethlehem ’ senior manager operations , amy plant , m.a , cdp shoulders lot responsibilities , including day-to-day operations administrative aspects homeless prevention programming , women ’ emergency shelter , residential homes cmi programs , community river home housing programs , medical respite , nutritional services facilities management bethlehem ’ physical programs mercy uptown wellness clinic . noted ’ exciting time working bethlehem 1410 fifth ave. renovation project developments coming uptown facilities . bethlehem ’ evidenced-based approach work also led become one four medical respite programs country selected pilot program determine best practices national certification national institute medical respite care . “ research shown built environment directly indirectly affects mental health , ” amy says , upgrades 1410 fifth ave. important . “ access upgraded private single occupancy rooms ability choose furnishings access increased amenities supportive services , women serve increased autonomy , choice control space truly feels like home. ” see . let ’ build strong foundation together . learn work : https : //lnkd.in/ewipy2av # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bethlehem Haven is honored to have Mosites, Inc. as the presenting sponsor for the upcoming Legacy Making Housewarming Gala happening Oct. 25 at Hotel Monaco, Downtown. 
-Since 1961, Mosites Construction Company has built buildings and bridges. The company also looks for opportunities to build our communities. 
-“Bethlehem Haven has given us a very nice chance to do this as the presenting sponsor for their 2023 Legacy-Making Housewarming Gala,” said Dean Mosites, CEO &amp; President, Building Division.
-“It’s our privilege to raise money at the presenting sponsor level to help support the 1410 Uptown Flats Project. It's gratifying to know that our donation supports the continuation of care for homeless individuals done in a way that leads to self-sufficiency. Mosites is happy to demonstrate that our business can play a role in helping to end the cycle of homelessness,” he added
-Tickets: https://lnkd.in/gXVeeXxA
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bethlehem haven is honored to have mosites, inc. as the presenting sponsor for the upcoming legacy making housewarming gala happening oct. 25 at hotel monaco, downtown. 
+since 1961, mosites construction company has built buildings and bridges. the company also looks for opportunities to build our communities. 
+“bethlehem haven has given us a very nice chance to do this as the presenting sponsor for their 2023 legacy-making housewarming gala,” said dean mosites, ceo &amp; president, building division.
+“it’s our privilege to raise money at the presenting sponsor level to help support the 1410 uptown flats project. it's gratifying to know that our donation supports the continuation of care for homeless individuals done in a way that leads to self-sufficiency. mosites is happy to demonstrate that our business can play a role in helping to end the cycle of homelessness,” he added
+tickets: https://lnkd.in/gxveexxa
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness
 </t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>106</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>8</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>999</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>31</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>6</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>bethlehem honored mosites , inc. presenting sponsor upcoming legacy making housewarming gala happening oct. 25 hotel monaco , downtown . since 1961 , mosites construction company built buildings bridges . company also looks opportunities build communities . “ bethlehem given us nice chance presenting sponsor 2023 legacy-making housewarming gala , ” said dean mosites , ceo &amp; president , building division . “ ’ privilege raise money presenting sponsor level help support 1410 uptown flats project . 's gratifying know donation supports continuation care homeless individuals done way leads self-sufficiency . mosites happy demonstrate business play role helping end cycle homelessness , ” added tickets : https : //lnkd.in/gxveexxa # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COMMUNITY CONNECTION: Montague Design brings beauty to 1410 Fifth Ave. project
-Catherine Montague is the founder and principal designer behind Montague Design, a Pittsburgh-based interior design and international sourcing firm. 
-Catherine is passionate about helping her clients infuse their personal and professional spaces with beauty, function and comfort, along with a Frenchsational flair -- a word she's coined that's a nod to her French roots.
-Beyond design, though, Catherine cares about giving back, particularly to organizations that support women. So when the opportunity to collaborate with Bethlehem Haven on designing and sourcing the furnishings for its 1410 Fifth Ave. renovation project came along, it felt like the perfect fit, Catherine says.
-Her work with Bethlehem Haven has three goals: to provide each resident with a sense of self, equity and pride; to help them develop a sense of responsibility for how to take care of their environment; and to create a living space that's beautiful and peaceful.  
-"Taking care of one's environment is an extension of taking care of one's self," Catherine says. "A lot of these women have had a major trauma in their lives. This is to help prepare them for a new life. Our designs are infused with love, empathy and a Frenchsational sense of fun."
-Learn more about the upcoming gala and how you can be involved in supporting the 1410 renovation: https://lnkd.in/gXVeeXxA
-We see you, let’s build a strong foundation together.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">community connection: montague design brings beauty to 1410 fifth ave. project
+catherine montague is the founder and principal designer behind montague design, a pittsburgh-based interior design and international sourcing firm. 
+catherine is passionate about helping her clients infuse their personal and professional spaces with beauty, function and comfort, along with a frenchsational flair -- a word she's coined that's a nod to her french roots.
+beyond design, though, catherine cares about giving back, particularly to organizations that support women. so when the opportunity to collaborate with bethlehem haven on designing and sourcing the furnishings for its 1410 fifth ave. renovation project came along, it felt like the perfect fit, catherine says.
+her work with bethlehem haven has three goals: to provide each resident with a sense of self, equity and pride; to help them develop a sense of responsibility for how to take care of their environment; and to create a living space that's beautiful and peaceful.  
+"taking care of one's environment is an extension of taking care of one's self," catherine says. "a lot of these women have had a major trauma in their lives. this is to help prepare them for a new life. our designs are infused with love, empathy and a frenchsational sense of fun."
+learn more about the upcoming gala and how you can be involved in supporting the 1410 renovation: https://lnkd.in/gxveexxa
+we see you, let’s build a strong foundation together.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>140</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>8</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>3</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>1</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>1567</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>52</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>6</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>community connection : montague design brings beauty 1410 fifth ave. project catherine montague founder principal designer behind montague design , pittsburgh-based interior design international sourcing firm . catherine passionate helping clients infuse personal professional spaces beauty , function comfort , along frenchsational flair -- word 's coined 's nod french roots . beyond design , though , catherine cares giving back , particularly organizations support women . opportunity collaborate bethlehem designing sourcing furnishings 1410 fifth ave. renovation project came along , felt like perfect fit , catherine says . work bethlehem three goals : provide resident sense self , equity pride ; help develop sense responsibility take care environment ; create living space 's beautiful peaceful . `` taking care one 's environment extension taking care one 's self , '' catherine says . `` lot women major trauma lives . help prepare new life . designs infused love , empathy frenchsational sense fun . '' learn upcoming gala involved supporting 1410 renovation : https : //lnkd.in/gxveexxa see , let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0.9969</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STAFF SPOTLIGHT:
-Deja Gzikowski, supervisor of community programs
-Part of experiencing homelessness is navigating a world of uncertainties. But for Bethlehem Haven’s residents, Deja Gzikowski strives to be a stable lifeline. 
-“What continues to drive me in this work and gives me the passion is the sense of relief I see in people,” Deja says. “I just walk around the building to make sure everyone is doing well.”
-Deja joined Bethlehem Haven in September 2022 after working for six years for Child and Youth Services (CYS). She holds a bachelor’s degree in social work and a master’s degree in conflict resolution and is working on a doctorate in counseling. 
-As Bethlehem Haven’s supervisor of community programs, she oversees four programs: two internal housing programs and two community ones. That work involves supporting people – many of whom are women 50 and older – who are experiencing homelessness, along with physical and/or mental health challenges.
-One of the highlights of her job, Deja says, is watching them open up and learn how to care for themselves with support from Bethlehem Haven’s staff and a care team. 
-“That makes us want to continue doing what we do,” Deja says. 
-Learn more about our work: https://lnkd.in/ewipY2AV
-We see you, let’s build a strong foundation together.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness  </t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">staff spotlight:
+deja gzikowski, supervisor of community programs
+part of experiencing homelessness is navigating a world of uncertainties. but for bethlehem haven’s residents, deja gzikowski strives to be a stable lifeline. 
+“what continues to drive me in this work and gives me the passion is the sense of relief i see in people,” deja says. “i just walk around the building to make sure everyone is doing well.”
+deja joined bethlehem haven in september 2022 after working for six years for child and youth services (cys). she holds a bachelor’s degree in social work and a master’s degree in conflict resolution and is working on a doctorate in counseling. 
+as bethlehem haven’s supervisor of community programs, she oversees four programs: two internal housing programs and two community ones. that work involves supporting people – many of whom are women 50 and older – who are experiencing homelessness, along with physical and/or mental health challenges.
+one of the highlights of her job, deja says, is watching them open up and learn how to care for themselves with support from bethlehem haven’s staff and a care team. 
+“that makes us want to continue doing what we do,” deja says. 
+learn more about our work: https://lnkd.in/ewipy2av
+we see you, let’s build a strong foundation together.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness  </t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>314</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>13</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>1385</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>37</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>staff spotlight : deja gzikowski , supervisor community programs part experiencing homelessness navigating world uncertainties . bethlehem ’ residents , deja gzikowski strives stable lifeline . “ continues drive work gives passion sense relief see people , ” deja says . “ walk around building make sure everyone well. ” deja joined bethlehem september 2022 working six years child youth services ( cys ) . holds bachelor ’ degree social work master ’ degree conflict resolution working doctorate counseling . bethlehem ’ supervisor community programs , oversees four programs : two internal housing programs two community ones . work involves supporting people – many women 50 older – experiencing homelessness , along physical and/or mental health challenges . one highlights job , deja says , watching open learn care support bethlehem ’ staff care team . “ makes us want continue , ” deja says . learn work : https : //lnkd.in/ewipy2av see , let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9716</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Our Gala is just over a month away! 
-In keeping with the housewarming theme for the gala, community members (including individuals, businesses or a team of people) are invited to sponsor one of the 26 rooms at 1410 Fifth Ave. to help support the renovation. 
-There also will be a party registry where patrons can select individual items to purchase for the residential rooms.
-Want to join us for this impactful evening?
-Tickets: https://lnkd.in/gXVeeXxA 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">our gala is just over a month away! 
+in keeping with the housewarming theme for the gala, community members (including individuals, businesses or a team of people) are invited to sponsor one of the 26 rooms at 1410 fifth ave. to help support the renovation. 
+there also will be a party registry where patrons can select individual items to purchase for the residential rooms.
+want to join us for this impactful evening?
+tickets: https://lnkd.in/gxveexxa 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>139</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>9</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>535</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>21</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>6</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>gala month away ! keeping housewarming theme gala , community members ( including individuals , businesses team people ) invited sponsor one 26 rooms 1410 fifth ave. help support renovation . also party registry patrons select individual items purchase residential rooms . want join us impactful evening ? tickets : https : //lnkd.in/gxveexxa # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0.8718</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#DidYouKnow Each room at 1410 Fifth Ave. is being designed with the equity and dignity of our residents at forefront of all that we do.
-To that end, we’ve engaged designer Catherine Montague to work with the women to create rooms that give them beauty, pride, agency and refuge.
-Each of the 26 rooms requires furniture, soft goods, and fixtures to fit the space and meet individual needs. We cannot do this without your support. 
-A $3,000 gift fully underwrites one room from design to decor. Rooms can be underwritten by individuals, companies, clubs, or groups of friends. 
-Your generosity now will have an impact on women for years to come, and will be recognized with a plaque dedication at 1410 Fifth Avenue, as well as in the hearts of the staff and residents.
-We see you. Let’s build a strong foundation together. 
-Contact Kate Colligan for more details:  Kate.Colligan@bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#didyouknow each room at 1410 fifth ave. is being designed with the equity and dignity of our residents at forefront of all that we do.
+to that end, we’ve engaged designer catherine montague to work with the women to create rooms that give them beauty, pride, agency and refuge.
+each of the 26 rooms requires furniture, soft goods, and fixtures to fit the space and meet individual needs. we cannot do this without your support. 
+a $3,000 gift fully underwrites one room from design to decor. rooms can be underwritten by individuals, companies, clubs, or groups of friends. 
+your generosity now will have an impact on women for years to come, and will be recognized with a plaque dedication at 1410 fifth avenue, as well as in the hearts of the staff and residents.
+we see you. let’s build a strong foundation together. 
+contact kate colligan for more details:  kate.colligan@bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>195</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>8</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>978</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>33</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>7</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t># didyouknow room 1410 fifth ave. designed equity dignity residents forefront . end , ’ engaged designer catherine montague work women create rooms give beauty , pride , agency refuge . 26 rooms requires furniture , soft goods , fixtures fit space meet individual needs . without support . $ 3,000 gift fully underwrites one room design decor . rooms underwritten individuals , companies , clubs , groups friends . generosity impact women years come , recognized plaque dedication 1410 fifth avenue , well hearts staff residents . see . let ’ build strong foundation together . contact kate colligan details : kate.colligan @ bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9696</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Mark Your Calendar!
-Bethlehem Haven is hosting a one-of-a-kind housewarming party in honor of the upcoming grand opening of the fully renovated 1410 Fifth Avenue residence in Pittsburgh’s Uptown neighborhood. 
-Legacy Making: Housewarming Gala will be held on Wednesday, Oct. 25, at the stunning Hotel Monaco in Downtown Pittsburgh. 
-Funds raised will help provide furnishings and home essentials for the 26 women who call 1410 Fifth Avenue their home, ensuring they have a safe, comfortable, and beautiful place to live. 
-For tickets: https://lnkd.in/gXVeeXxA
-Interested in a sponsorship opportunity? 
-Contact Kate Colligan for more details:  Kate.Colligan@bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #Housewarming #Gala #Fundraiser</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>mark your calendar!
+bethlehem haven is hosting a one-of-a-kind housewarming party in honor of the upcoming grand opening of the fully renovated 1410 fifth avenue residence in pittsburgh’s uptown neighborhood. 
+legacy making: housewarming gala will be held on wednesday, oct. 25, at the stunning hotel monaco in downtown pittsburgh. 
+funds raised will help provide furnishings and home essentials for the 26 women who call 1410 fifth avenue their home, ensuring they have a safe, comfortable, and beautiful place to live. 
+for tickets: https://lnkd.in/gxveexxa
+interested in a sponsorship opportunity? 
+contact kate colligan for more details:  kate.colligan@bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #housewarming #gala #fundraiser</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>123</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>7</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>789</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>34</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>9</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>mark calendar ! bethlehem hosting one-of-a-kind housewarming party honor upcoming grand opening fully renovated 1410 fifth avenue residence pittsburgh ’ uptown neighborhood . legacy making : housewarming gala held wednesday , oct. 25 , stunning hotel monaco downtown pittsburgh . funds raised help provide furnishings home essentials 26 women call 1410 fifth avenue home , ensuring safe , comfortable , beautiful place live . tickets : https : //lnkd.in/gxveexxa interested sponsorship opportunity ? contact kate colligan details : kate.colligan @ bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # housewarming # gala # fundraiser</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0.9837</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Want to give back? Meal donations are still one of our greatest needs at Bethlehem Haven. You or your organization can make a financial donation to support our meal programs, you can sponsor a pizza party, or you can help make the meal!  
-Support the women we serve by donating a meal today.
-Contact (412) 391-1348 or info@bethlehemhaven.org. 
-We see you. Let’s build a strong foundation together. 
- #BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">want to give back? meal donations are still one of our greatest needs at bethlehem haven. you or your organization can make a financial donation to support our meal programs, you can sponsor a pizza party, or you can help make the meal!  
+support the women we serve by donating a meal today.
+contact (412) 391-1348 or info@bethlehemhaven.org. 
+we see you. let’s build a strong foundation together. 
+ #bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>62</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>6</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>478</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>20</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>want give back ? meal donations still one greatest needs bethlehem . organization make financial donation support meal programs , sponsor pizza party , help make meal ! support women serve donating meal today . contact ( 412 ) 391-1348 info @ bethlehemhaven.org . see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0.9577</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Happy Labor Day from all of us at Bethlehem Haven! 
-Today, we remember the work of those in the labor movement who fought hard for workers' rights. 
-We also celebrate the essential role workers play in America's growth and development. We know that economic justice is housing justice and we acknowledge that so many fought – and continue to fight – tirelessly for it.
-We see you. Let’s build a strong foundation together. 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #LaborDay </t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">happy labor day from all of us at bethlehem haven! 
+today, we remember the work of those in the labor movement who fought hard for workers' rights. 
+we also celebrate the essential role workers play in america's growth and development. we know that economic justice is housing justice and we acknowledge that so many fought – and continue to fight – tirelessly for it.
+we see you. let’s build a strong foundation together. 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #laborday </t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>62</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>513</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>16</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>7</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>happy labor day us bethlehem ! today , remember work labor movement fought hard workers ' rights . also celebrate essential role workers play america 's growth development . know economic justice housing justice acknowledge many fought – continue fight – tirelessly . see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # laborday</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Looking for ways to give back? Bethlehem Haven is in need of the items listed below. Consider donating gift cards!  
-Gift cards are always useful. Target, CVS, Rite-Aid, Dollar Tree, Dollar General, Giant Eagle, McDonald’s, and VISA gift cards give our clients the flexibility to meet their current needs.
-For questions about donating items please contact (412) 391-1348 or info@bethlehemhaven.org. Thank you!
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">looking for ways to give back? bethlehem haven is in need of the items listed below. consider donating gift cards!  
+gift cards are always useful. target, cvs, rite-aid, dollar tree, dollar general, giant eagle, mcdonald’s, and visa gift cards give our clients the flexibility to meet their current needs.
+for questions about donating items please contact (412) 391-1348 or info@bethlehemhaven.org. thank you!
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>48</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>488</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>26</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>6</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>looking ways give back ? bethlehem need items listed . consider donating gift cards ! gift cards always useful . target , cvs , rite-aid , dollar tree , dollar general , giant eagle , mcdonald ’ , visa gift cards give clients flexibility meet current needs . questions donating items please contact ( 412 ) 391-1348 info @ bethlehemhaven.org . thank ! # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9544</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Have you checked out our new video highlighting the important work of Bethlehem Haven? Learn more about what we do, but more importantly, WHY we do what we do. 
-It is a privilege to serve our neighbors in need.
-We see you. Let’s build a strong foundation together. 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness 
-https://lnkd.in/eQjd5bAT</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>have you checked out our new video highlighting the important work of bethlehem haven? learn more about what we do, but more importantly, why we do what we do. 
+it is a privilege to serve our neighbors in need.
+we see you. let’s build a strong foundation together. 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness 
+https://lnkd.in/eqjd5bat</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>97</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>17</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="n">
         <v>370</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>18</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>6</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>checked new video highlighting important work bethlehem ? learn , importantly , . privilege serve neighbors need . see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness https : //lnkd.in/eqjd5bat</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>#DidYouKnow Our 1410 Fifth Ave. renovation project in Uptown continues, and we look forward to welcoming back the 20-plus women who call the building their home in the coming months when the work is completed. 
-A homecoming calls for a housewarming party – and you’re invited! 
-WHEN: Wednesday, Oct. 25
-WHERE: Hotel Monaco in Downtown Pittsburgh
-WHY: Bethlehem Haven will hold a special gala to raise money to help cover the cost of the room renovations. The event also will honor John Lovelace of the UPMC Health Plan. 
-Stay tuned for more details! 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #HotelMonaco #PittsburghFundraiser</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>#didyouknow our 1410 fifth ave. renovation project in uptown continues, and we look forward to welcoming back the 20-plus women who call the building their home in the coming months when the work is completed. 
+a homecoming calls for a housewarming party – and you’re invited! 
+when: wednesday, oct. 25
+where: hotel monaco in downtown pittsburgh
+why: bethlehem haven will hold a special gala to raise money to help cover the cost of the room renovations. the event also will honor john lovelace of the upmc health plan. 
+stay tuned for more details! 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #hotelmonaco #pittsburghfundraiser</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>92</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>664</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>22</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>9</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t># didyouknow 1410 fifth ave. renovation project uptown continues , look forward welcoming back 20-plus women call building home coming months work completed . homecoming calls housewarming party – ’ invited ! : wednesday , oct. 25 : hotel monaco downtown pittsburgh : bethlehem hold special gala raise money help cover cost room renovations . event also honor john lovelace upmc health plan . stay tuned details ! # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # hotelmonaco # pittsburghfundraiser</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9298</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Were you or a family member once supported by Bethlehem Haven? Would you like to share the story with us? 
-We love to hear from our past guests who have gone on to transform their lives and want to share the good news!  
-Email us: info@bethlehemhaven.org or send us a private message on social media and let’s connect. 
-We see you. Let’s build a strong foundation together. 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">were you or a family member once supported by bethlehem haven? would you like to share the story with us? 
+we love to hear from our past guests who have gone on to transform their lives and want to share the good news!  
+email us: info@bethlehemhaven.org or send us a private message on social media and let’s connect. 
+we see you. let’s build a strong foundation together. 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>46</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>4</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>454</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>15</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>6</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>family member supported bethlehem ? would like share story us ? love hear past guests gone transform lives want share good news ! email us : info @ bethlehemhaven.org send us private message social media let ’ connect . see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>0.9615</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STAFF SPOTLIGHT: Jan Carlini, medical respite supervisor
-Jan Carlini has worked with major corporations and multi-million dollar accounts – but she never loved that work. At Bethlehem Haven, though, she’s found a mission that aligns with her values and desire to spread grace, peace and acceptance for all. 
-As the Medical Respite Supervisor, Jan leads an interdisciplinary team of clinicians, social services and guest services personnel. Her vision for Respite is to help people feel valued and respected, with a trauma-informed approach. 
-“This approach not only supports those experiencing homelessness, but it strengthens relationships with those who work alongside us,” she says. “When we see and hear from everyone involved, we do our best work. That’s what makes teamwork and collaborative models of care so strong.”
-Congratulations to Jan who also recently was awarded the Marilyn Sullivan Award for her commitment to compassion, justice, advocacy and servant leadership! 
-“My goal is to make everyone feel welcome, like an invited guest. That’s something few experience on the streets.”
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #AwardWinner #JanCarlini #MedicalRespite
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">staff spotlight: jan carlini, medical respite supervisor
+jan carlini has worked with major corporations and multi-million dollar accounts – but she never loved that work. at bethlehem haven, though, she’s found a mission that aligns with her values and desire to spread grace, peace and acceptance for all. 
+as the medical respite supervisor, jan leads an interdisciplinary team of clinicians, social services and guest services personnel. her vision for respite is to help people feel valued and respected, with a trauma-informed approach. 
+“this approach not only supports those experiencing homelessness, but it strengthens relationships with those who work alongside us,” she says. “when we see and hear from everyone involved, we do our best work. that’s what makes teamwork and collaborative models of care so strong.”
+congratulations to jan who also recently was awarded the marilyn sullivan award for her commitment to compassion, justice, advocacy and servant leadership! 
+“my goal is to make everyone feel welcome, like an invited guest. that’s something few experience on the streets.”
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #awardwinner #jancarlini #medicalrespite
 </t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>219</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>10</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>1219</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>35</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>9</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>staff spotlight : jan carlini , medical respite supervisor jan carlini worked major corporations multi-million dollar accounts – never loved work . bethlehem , though , ’ found mission aligns values desire spread grace , peace acceptance . medical respite supervisor , jan leads interdisciplinary team clinicians , social services guest services personnel . vision respite help people feel valued respected , trauma-informed approach . “ approach supports experiencing homelessness , strengthens relationships work alongside us , ” says . “ see hear everyone involved , best work . ’ makes teamwork collaborative models care strong. ” congratulations jan also recently awarded marilyn sullivan award commitment compassion , justice , advocacy servant leadership ! “ goal make everyone feel welcome , like invited guest . ’ something experience streets. ” # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # awardwinner # jancarlini # medicalrespite</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>0.9958</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Who we are: At Bethlehem Haven, it’s so much more than housing. 
-Providing a continuum of care for those experiencing homelessness includes making sure our neighbors don’t go hungry, they have access to mental health services, rental assistance and more. 
-We see you. Let’s build a strong foundation together. 
-Want to support this work? Donate here: https://lnkd.in/g_mmNdUf
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">who we are: at bethlehem haven, it’s so much more than housing. 
+providing a continuum of care for those experiencing homelessness includes making sure our neighbors don’t go hungry, they have access to mental health services, rental assistance and more. 
+we see you. let’s build a strong foundation together. 
+want to support this work? donate here: https://lnkd.in/g_mmnduf
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>72</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>455</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>22</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>6</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>: bethlehem , ’ much housing . providing continuum care experiencing homelessness includes making sure neighbors ’ go hungry , access mental health services , rental assistance . see . let ’ build strong foundation together . want support work ? donate : https : //lnkd.in/g_mmnduf # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8957000000000001</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Have you checked out our newsletter?
-We love sharing with you each month stories of inspiration and ways to get involved with Bethlehem Haven.
-If you've missed any of our recent newsletters, you can now catch up on the latest news from Bethlehem Haven in our online newsletter library.
-#LinkInBio
-https://lnkd.in/eZ_F-JBM
-This online resource will make it easier to share these stories with your friends and family, too.
-We see you. Let’s build a strong foundation together.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>have you checked out our newsletter?
+we love sharing with you each month stories of inspiration and ways to get involved with bethlehem haven.
+if you've missed any of our recent newsletters, you can now catch up on the latest news from bethlehem haven in our online newsletter library.
+#linkinbio
+https://lnkd.in/ez_f-jbm
+this online resource will make it easier to share these stories with your friends and family, too.
+we see you. let’s build a strong foundation together.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>64</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
@@ -1711,1144 +2275,1640 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>555</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>23</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>7</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>checked newsletter ? love sharing month stories inspiration ways get involved bethlehem . 've missed recent newsletters , catch latest news bethlehem online newsletter library . # linkinbio https : //lnkd.in/ez_f-jbm online resource make easier share stories friends family , . see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>0.9618</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>36</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Save the Date! 
-Bethlehem Haven is planning a special gala on Oct. 25 at the Hotel Monaco to celebrate our 1410 Renovation Project as well as raise funds to support our continuum of care for homeless individuals we are privileged to serve.  
-For more information: Kate.Colligan@bethlehemhaven.org or 412-944-1393.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #HotelMonaco</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>save the date! 
+bethlehem haven is planning a special gala on oct. 25 at the hotel monaco to celebrate our 1410 renovation project as well as raise funds to support our continuum of care for homeless individuals we are privileged to serve.  
+for more information: kate.colligan@bethlehemhaven.org or 412-944-1393.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #hotelmonaco</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>72</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>8</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>404</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>17</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>save date ! bethlehem planning special gala oct. 25 hotel monaco celebrate 1410 renovation project well raise funds support continuum care homeless individuals privileged serve . information : kate.colligan @ bethlehemhaven.org 412-944-1393 . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # hotelmonaco</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>0.9628</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>37</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Thank you to our incredible donors (87!) who participated in this year’s #OneDay campaign! Because of your generosity, we exceeded our goal and raised $16,871! 
-Still want to contribute? Visit our website at https://lnkd.in/g_mmNdUf to make your donation today! If you send a us a check, please put Critical Needs Day in the memo line.
-These funds will go to support the people we are proud to serve here at Bethlehem Haven.
-We see you. Let’s build a strong foundation together. 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness  #CriticalNeedsDay #PittsburghGives</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>thank you to our incredible donors (87!) who participated in this year’s #oneday campaign! because of your generosity, we exceeded our goal and raised $16,871! 
+still want to contribute? visit our website at https://lnkd.in/g_mmnduf to make your donation today! if you send a us a check, please put critical needs day in the memo line.
+these funds will go to support the people we are proud to serve here at bethlehem haven.
+we see you. let’s build a strong foundation together. 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness  #criticalneedsday #pittsburghgives</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>67</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>5</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>594</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>30</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>9</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>thank incredible donors ( 87 ! ) participated year ’ # oneday campaign ! generosity , exceeded goal raised $ 16,871 ! still want contribute ? visit website https : //lnkd.in/g_mmnduf make donation today ! send us check , please put critical needs day memo line . funds go support people proud serve bethlehem . see . let ’ build strong foundation together . # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # criticalneedsday # pittsburghgives</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>0.9466</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>#ONEDAY is Today! Bethlehem Haven is honored to participate in #OneDay, a time to support the critical needs of nonprofits across the region, thanks to the support of The Pittsburgh Foundation and The Community Foundation of Westmoreland County. 
-You can help our neighbors in need achieve housing stability by making a donation HERE: https://lnkd.in/eWMTW6VV
-There are multiple ways to give: 
-✅ $35 – One night of emergency shelter
-✅ $100 – One day of food for six people
-✅ $500 – Mental health care services
-✅ $1,000 – Rental assistance for families
-✅ Or donate what you can! 
-Bethlehem Haven will receive additional funds, thanks to foundation support, for donations we receive on Aug. 1. 
-We see you. Let's build a strong foundation together
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>#oneday is today! bethlehem haven is honored to participate in #oneday, a time to support the critical needs of nonprofits across the region, thanks to the support of the pittsburgh foundation and the community foundation of westmoreland county. 
+you can help our neighbors in need achieve housing stability by making a donation here: https://lnkd.in/ewmtw6vv
+there are multiple ways to give: 
+✅ $35 – one night of emergency shelter
+✅ $100 – one day of food for six people
+✅ $500 – mental health care services
+✅ $1,000 – rental assistance for families
+✅ or donate what you can! 
+bethlehem haven will receive additional funds, thanks to foundation support, for donations we receive on aug. 1. 
+we see you. let's build a strong foundation together
 �
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #EndHomelessness #OneDay #CriticalNeedsDay #PittsburghGives</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #endhomelessness #oneday #criticalneedsday #pittsburghgives</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>68</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>6</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>8</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>870</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>34</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>11</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t># oneday today ! bethlehem honored participate # oneday , time support critical needs nonprofits across region , thanks support pittsburgh foundation community foundation westmoreland county . help neighbors need achieve housing stability making donation : https : //lnkd.in/ewmtw6vv multiple ways give : ✅ $ 35 – one night emergency shelter ✅ $ 100 – one day food six people ✅ $ 500 – mental health care services ✅ $ 1,000 – rental assistance families ✅ donate ! bethlehem receive additional funds , thanks foundation support , donations receive aug. 1. see . let 's build strong foundation together � # bethlehemhaven # weseeyou # community # nonprofit # homeless # endhomelessness # oneday # criticalneedsday # pittsburghgives</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>39</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Why is it important to meet people where they are? 
-Where the system has failed us is that we place people in shelters – but without the tools for them to be successful. It's those wrap-around social support services that make up the fundamentals of Bethlehem Haven’s low-barrier harm reduction model. 
-It's meeting people where they are. It's assessing what those needs are. 
-This builds a relationship that leads to trust. That trust allows Bethlehem Haven’s staff to work on the other important interventions that lead toward stabilization to a point where we can talk about goals. 
-We see you. Let’s build a strong foundation together. 
-Connect with us: https://bethlehemhaven.org 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>why is it important to meet people where they are? 
+where the system has failed us is that we place people in shelters – but without the tools for them to be successful. it's those wrap-around social support services that make up the fundamentals of bethlehem haven’s low-barrier harm reduction model. 
+it's meeting people where they are. it's assessing what those needs are. 
+this builds a relationship that leads to trust. that trust allows bethlehem haven’s staff to work on the other important interventions that lead toward stabilization to a point where we can talk about goals. 
+we see you. let’s build a strong foundation together. 
+connect with us: https://bethlehemhaven.org 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>68</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>5</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
         <v>776</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>26</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>7</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>important meet people ? system failed us place people shelters – without tools successful . 's wrap-around social support services make fundamentals bethlehem ’ low-barrier harm reduction model . 's meeting people . 's assessing needs . builds relationship leads trust . trust allows bethlehem ’ staff work important interventions lead toward stabilization point talk goals . see . let ’ build strong foundation together . connect us : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0.6516999999999999</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>40</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We have such incredible volunteers! Here are just a few of the organizations that supported Bethlehem Haven this month: 
-- July 2: St. Joseph Church provided dinner for the Haven Homes.
-- July 3: #412FoodRescue provides bread and pastries every Monday for all three programs.                                                                                   
-- July 8:  St. Aidan Church provided dinner for the Shelter.
-- July 18: Temple Emanuel of South Hills provided frozen pizza for all three programs.
-And upcoming… 
-- July 23: St. George Antiochian Orthodox Cathedral will provide dinner for all three programs.
-- July 24: St. Brendan will provide bagged lunches for Haven Homes.
-We see you. Let’s build a strong foundation together. Learn how you can get involved: www.bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #Volunteer #GiveBack </t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we have such incredible volunteers! here are just a few of the organizations that supported bethlehem haven this month: 
+- july 2: st. joseph church provided dinner for the haven homes.
+- july 3: #412foodrescue provides bread and pastries every monday for all three programs.                                                                                   
+- july 8:  st. aidan church provided dinner for the shelter.
+- july 18: temple emanuel of south hills provided frozen pizza for all three programs.
+and upcoming… 
+- july 23: st. george antiochian orthodox cathedral will provide dinner for all three programs.
+- july 24: st. brendan will provide bagged lunches for haven homes.
+we see you. let’s build a strong foundation together. learn how you can get involved: www.bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #volunteer #giveback </t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>60</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>4</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>907</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>39</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>10</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>incredible volunteers ! organizations supported bethlehem month : - july 2 : st. joseph church provided dinner homes . - july 3 : # 412foodrescue provides bread pastries every monday three programs . - july 8 : st. aidan church provided dinner shelter . - july 18 : temple emanuel south hills provided frozen pizza three programs . upcoming… - july 23 : st. george antiochian orthodox cathedral provide dinner three programs . - july 24 : st. brendan provide bagged lunches homes . see . let ’ build strong foundation together . learn get involved : www.bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # volunteer # giveback</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>0.7088</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>41</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exciting things are happening 1410 Fifth Ave., where 26 women and gender- non-conforming people in our residential program call home.
-We are renovating! This work began in early April 2023 and is expected to be completed by December 2023. Our residents and staff will be moved to another location during the entirety of Phase I.   
-Why renovate? At this point, we’re at a crisis because the roof is leaking. The elevator often breaks down, and the furnace has broken two times. Bethlehem Haven has an opportunity to partner with a local health system to move the individuals into a therapeutic facility for the seven months that it’s going to take to renovate 1410 Fifth Ave. 
-It’s going to be absolutely beautiful when the renovation is complete! 
-We see you. Let’s build a strong foundation together.  
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">exciting things are happening 1410 fifth ave., where 26 women and gender- non-conforming people in our residential program call home.
+we are renovating! this work began in early april 2023 and is expected to be completed by december 2023. our residents and staff will be moved to another location during the entirety of phase i.   
+why renovate? at this point, we’re at a crisis because the roof is leaking. the elevator often breaks down, and the furnace has broken two times. bethlehem haven has an opportunity to partner with a local health system to move the individuals into a therapeutic facility for the seven months that it’s going to take to renovate 1410 fifth ave. 
+it’s going to be absolutely beautiful when the renovation is complete! 
+we see you. let’s build a strong foundation together.  
 https://bethlehemhaven.org 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #WeSeeYou </t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #weseeyou </t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>126</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>14</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
         <v>5</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>935</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>29</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>exciting things happening 1410 fifth ave. , 26 women gender- non-conforming people residential program call home . renovating ! work began early april 2023 expected completed december 2023. residents staff moved another location entirety phase i. renovate ? point , ’ crisis roof leaking . elevator often breaks , furnace broken two times . bethlehem opportunity partner local health system move individuals therapeutic facility seven months ’ going take renovate 1410 fifth ave. ’ going absolutely beautiful renovation complete ! see . let ’ build strong foundation together . https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # weseeyou</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>0.7831</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>42</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are grateful for the kindness of our volunteers and donors. 
-If you have photos or a volunteering story to share with us, please email us at info@bethlehemhaven.org or tag us on social media. 
-Here are just some of the organizations and individuals who’ve recently supported us:
-- Sarah Zuckerman and Beth-EL, which provided lunch for all three programs
-- First Lutheran Church, which provided dinner for all three programs on Wednesdays
-- Bara Griffith &amp; St. Aidan, which provided dinner 
-- Bethlehem Lutheran Church, which donated frozen entree meals and desserts for all three programs
-- St. Regina Coeli Parish, which provided dinner for all three programs
-Would you like to volunteer with us? Email us: info@bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #SpreadKindness #Volunteer #GiveBack #WeSeeYou </t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we are grateful for the kindness of our volunteers and donors. 
+if you have photos or a volunteering story to share with us, please email us at info@bethlehemhaven.org or tag us on social media. 
+here are just some of the organizations and individuals who’ve recently supported us:
+- sarah zuckerman and beth-el, which provided lunch for all three programs
+- first lutheran church, which provided dinner for all three programs on wednesdays
+- bara griffith &amp; st. aidan, which provided dinner 
+- bethlehem lutheran church, which donated frozen entree meals and desserts for all three programs
+- st. regina coeli parish, which provided dinner for all three programs
+would you like to volunteer with us? email us: info@bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #spreadkindness #volunteer #giveback #weseeyou </t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>60</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>5</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>873</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>35</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>11</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>grateful kindness volunteers donors . photos volunteering story share us , please email us info @ bethlehemhaven.org tag us social media . organizations individuals ’ recently supported us : - sarah zuckerman beth-el , provided lunch three programs - first lutheran church , provided dinner three programs wednesdays - bara griffith &amp; st. aidan , provided dinner - bethlehem lutheran church , donated frozen entree meals desserts three programs - st. regina coeli parish , provided dinner three programs would like volunteer us ? email us : info @ bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # spreadkindness # volunteer # giveback # weseeyou</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>43</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#DidYouKnow Anyone can host a fundraiser to support Bethlehem Haven. 
-Thank you to Adhi Thirumala, who recently created a fundraising event for Bethlehem Haven! He and local high school student, Moonyoung Hwang, held a miniature golf gathering at Pine Creek Mini Golf in Allison Park to support Bethlehem Haven.
-They used the event as an opportunity to bring awareness of Bethlehem Haven and our mission and to raise funds to help support those we're privileged to serve. 
-They have raised more than $1,400 (and counting!) which will help to furnish one of the rooms in the 1410 Fifth Ave. renovation.
-Thank you to everyone who contributed! We see you. Let’s build a strong foundation together!  
-If you'd like to learn more, email minigolffundraiser@gmail.com or make a donation via the Bethlehem Haven website and include "Mini Golf Fundraiser" in the comments section. 
-If you're interested in sponsoring an event to support Bethlehem Haven, please contact Senior Manager of Development Kate Colligan: 
-Kate.Colligan@bethlehemhaven.org or 412-944-1393.
-#BethlehemHaven #WeSeeYou #EndHomelessnness #Fundraiser #AllisonPark </t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#didyouknow anyone can host a fundraiser to support bethlehem haven. 
+thank you to adhi thirumala, who recently created a fundraising event for bethlehem haven! he and local high school student, moonyoung hwang, held a miniature golf gathering at pine creek mini golf in allison park to support bethlehem haven.
+they used the event as an opportunity to bring awareness of bethlehem haven and our mission and to raise funds to help support those we're privileged to serve. 
+they have raised more than $1,400 (and counting!) which will help to furnish one of the rooms in the 1410 fifth ave. renovation.
+thank you to everyone who contributed! we see you. let’s build a strong foundation together!  
+if you'd like to learn more, email minigolffundraiser@gmail.com or make a donation via the bethlehem haven website and include "mini golf fundraiser" in the comments section. 
+if you're interested in sponsoring an event to support bethlehem haven, please contact senior manager of development kate colligan: 
+kate.colligan@bethlehemhaven.org or 412-944-1393.
+#bethlehemhaven #weseeyou #endhomelessnness #fundraiser #allisonpark </t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>61</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>4</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>1131</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>40</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t># didyouknow anyone host fundraiser support bethlehem . thank adhi thirumala , recently created fundraising event bethlehem ! local high school student , moonyoung hwang , held miniature golf gathering pine creek mini golf allison park support bethlehem . used event opportunity bring awareness bethlehem mission raise funds help support 're privileged serve . raised $ 1,400 ( counting ! ) help furnish one rooms 1410 fifth ave. renovation . thank everyone contributed ! see . let ’ build strong foundation together ! 'd like learn , email minigolffundraiser @ gmail.com make donation via bethlehem website include `` mini golf fundraiser '' comments section . 're interested sponsoring event support bethlehem , please contact senior manager development kate colligan : kate.colligan @ bethlehemhaven.org 412-944-1393 . # bethlehemhaven # weseeyou # endhomelessnness # fundraiser # allisonpark</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STAFF SPOTLIGHT: Briana Gloeckl, data &amp; quality administrator
-To Briana Gloeckl, data isn’t just a bunch of numbers – it’s insights into people’s lives. 
-As Bethlehem Haven’s data and quality administrator, she organizes and translates data to help staff, management and stakeholders better understand the region’s homeless population.
-What drives Briana’s commitment to this work is the person each number represents.
-“Looking at numbers and spreadsheets all day isn’t why I got into this work,” she says. “I got into this work to use my specific skills to connect people, when so much of our world today drives disconnection. My unique role allows me to work closely with each of our departments and see how much our staff cares for our individuals on all levels,” she said. 
-Thank you, Briana, for your incredible commitment and work! Bethlehem Haven sees you and appreciates you.
-Connect with us: https://bethlehemhaven.org 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #SpreadKindness #StaffSpotlight </t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">staff spotlight: briana gloeckl, data &amp; quality administrator
+to briana gloeckl, data isn’t just a bunch of numbers – it’s insights into people’s lives. 
+as bethlehem haven’s data and quality administrator, she organizes and translates data to help staff, management and stakeholders better understand the region’s homeless population.
+what drives briana’s commitment to this work is the person each number represents.
+“looking at numbers and spreadsheets all day isn’t why i got into this work,” she says. “i got into this work to use my specific skills to connect people, when so much of our world today drives disconnection. my unique role allows me to work closely with each of our departments and see how much our staff cares for our individuals on all levels,” she said. 
+thank you, briana, for your incredible commitment and work! bethlehem haven sees you and appreciates you.
+connect with us: https://bethlehemhaven.org 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #spreadkindness #staffspotlight </t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>68</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>6</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>1054</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>33</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>staff spotlight : briana gloeckl , data &amp; quality administrator briana gloeckl , data ’ bunch numbers – ’ insights people ’ lives . bethlehem ’ data quality administrator , organizes translates data help staff , management stakeholders better understand region ’ homeless population . drives briana ’ commitment work person number represents . “ looking numbers spreadsheets day ’ got work , ” says . “ got work use specific skills connect people , much world today drives disconnection . unique role allows work closely departments see much staff cares individuals levels , ” said . thank , briana , incredible commitment work ! bethlehem sees appreciates . connect us : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # spreadkindness # staffspotlight</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>0.9595</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>45</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">From all of us at Bethlehem Haven, have a safe and happy Fourth of July! 
-#HappyFourthOfJuly #IndependenceDay #BethlehemHaven #WeSeeYou #EndHomelessnness </t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">from all of us at bethlehem haven, have a safe and happy fourth of july! 
+#happyfourthofjuly #independenceday #bethlehemhaven #weseeyou #endhomelessnness </t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>37</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>4</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>155</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>7</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>us bethlehem , safe happy fourth july ! # happyfourthofjuly # independenceday # bethlehemhaven # weseeyou # endhomelessnness</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">It's been an exciting month at Bethlehem Haven!
-As the renovation at our 1410 Fifth Ave. building continues, we recently received another significant grant that will help us to expand the reach of our continuum of care model and Bethlehem Haven's presence in Pittsburgh's Uptown neighborhood. 
-The Henry L. Hillman Foundation announced this month more than $5.4 million in grants to six recipients, each working to create and/or preserve in Allegheny County single-room-occupancy units. Bethlehem Haven is slated to receive $450,000 of those funds to support the renovation of 1410 Fifth Ave. 
-We are grateful for these funds that will help us transform this building and make it a safe, welcoming place for those who live there. 
-We see you. Let's build a strong foundation together.
-Learn more about our work: bethlehemhaven.org 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness   #SpreadKindness #HillmanFoundation #HenryLHillmanFoundation  </t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">it's been an exciting month at bethlehem haven!
+as the renovation at our 1410 fifth ave. building continues, we recently received another significant grant that will help us to expand the reach of our continuum of care model and bethlehem haven's presence in pittsburgh's uptown neighborhood. 
+the henry l. hillman foundation announced this month more than $5.4 million in grants to six recipients, each working to create and/or preserve in allegheny county single-room-occupancy units. bethlehem haven is slated to receive $450,000 of those funds to support the renovation of 1410 fifth ave. 
+we are grateful for these funds that will help us transform this building and make it a safe, welcoming place for those who live there. 
+we see you. let's build a strong foundation together.
+learn more about our work: bethlehemhaven.org 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness   #spreadkindness #hillmanfoundation #henrylhillmanfoundation  </t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>173</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>11</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
       </c>
       <c r="F47" t="n">
         <v>2</v>
       </c>
       <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
         <v>988</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>35</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>10</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>'s exciting month bethlehem ! renovation 1410 fifth ave. building continues , recently received another significant grant help us expand reach continuum care model bethlehem 's presence pittsburgh 's uptown neighborhood . henry l. hillman foundation announced month $ 5.4 million grants six recipients , working create and/or preserve allegheny county single-room-occupancy units . bethlehem slated receive $ 450,000 funds support renovation 1410 fifth ave. grateful funds help us transform building make safe , welcoming place live . see . let 's build strong foundation together . learn work : bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # spreadkindness # hillmanfoundation # henrylhillmanfoundation</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>0.9868</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are grateful for the support of our community!
-Bethlehem Haven awarded $350,000 grant:
-Pennsylvania Sen. Wayne Fontana recently announced the distribution of more than $4.3 million in grants to local initiatives to address affordable housing needs and associated community development. The grants are made available by the Pennsylvania Housing Affordability and Rehabilitation Enhancement (PHARE) Fund.
-Bethlehem Haven received its grant to support the renovation of our 1410 Fifth Ave. building, which is where 26 women call their home in Pittsburgh's Uptown neighborhood. We are grateful for these funds that will help us transform this building and make it a safe, welcoming place for those who live there.
-Learn more about our work: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we are grateful for the support of our community!
+bethlehem haven awarded $350,000 grant:
+pennsylvania sen. wayne fontana recently announced the distribution of more than $4.3 million in grants to local initiatives to address affordable housing needs and associated community development. the grants are made available by the pennsylvania housing affordability and rehabilitation enhancement (phare) fund.
+bethlehem haven received its grant to support the renovation of our 1410 fifth ave. building, which is where 26 women call their home in pittsburgh's uptown neighborhood. we are grateful for these funds that will help us transform this building and make it a safe, welcoming place for those who live there.
+learn more about our work: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>84</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>3</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
         <v>859</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>29</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>7</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>grateful support community ! bethlehem awarded $ 350,000 grant : pennsylvania sen. wayne fontana recently announced distribution $ 4.3 million grants local initiatives address affordable housing needs associated community development . grants made available pennsylvania housing affordability rehabilitation enhancement ( phare ) fund . bethlehem received grant support renovation 1410 fifth ave. building , 26 women call home pittsburgh 's uptown neighborhood . grateful funds help us transform building make safe , welcoming place live . learn work : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>0.9812</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#ThrowbackThursday 
-Thank you to Sister to Sister Ministry for spreading the love on Mother's Day. Many of the residents at Bethlehem Haven are mothers and grandmothers who we were proud to honor. We appreciate the kindness and are so grateful to our volunteers for brightening everyone’s day! 
-We see you. Let’s build a strong foundation together. 
-Learn more about our volunteer opportunities or how to donate: https://lnkd.in/gkC_jWaC
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #MothersDay #SpreadKindness </t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#throwbackthursday 
+thank you to sister to sister ministry for spreading the love on mother's day. many of the residents at bethlehem haven are mothers and grandmothers who we were proud to honor. we appreciate the kindness and are so grateful to our volunteers for brightening everyone’s day! 
+we see you. let’s build a strong foundation together. 
+learn more about our volunteer opportunities or how to donate: https://lnkd.in/gkc_jwac
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #mothersday #spreadkindness </t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>72</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>2</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>1</v>
       </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
       <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>557</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>23</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>10</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t># throwbackthursday thank sister sister ministry spreading love mother 's day . many residents bethlehem mothers grandmothers proud honor . appreciate kindness grateful volunteers brightening everyone ’ day ! see . let ’ build strong foundation together . learn volunteer opportunities donate : https : //lnkd.in/gkc_jwac # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # mothersday # spreadkindness</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Why have a medical respite program?
-Bethlehem Haven started this 29-bed post-acute recuperative care program in partnership with one of the local health systems in 2018.  
-The real focus and commitment behind the medical respite program is that there were many individuals who – as a result of their active substance use disorder (i.e., drugs, alcohol) – needed some level of inpatient care. 
-Once they were stabilized, they had no place to go to continue their recuperative care because they were experiencing homelessness or were unsafely housed. 
-Bethlehem Haven created a medical respite program that serves individuals and provides a safe recuperative environment as well as wrap-around supportive services like a full-time housing advocate. Bethlehem Haven partners with local community health systems and managed care organizations (MCO).
-We believe in meeting people where they are. We see you. Let’s build a strong foundation together.
-Want to help support this work? Visit our website:
-https://lnkd.in/gkC_jWaC
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #MedicalRespite</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>why have a medical respite program?
+bethlehem haven started this 29-bed post-acute recuperative care program in partnership with one of the local health systems in 2018.  
+the real focus and commitment behind the medical respite program is that there were many individuals who – as a result of their active substance use disorder (i.e., drugs, alcohol) – needed some level of inpatient care. 
+once they were stabilized, they had no place to go to continue their recuperative care because they were experiencing homelessness or were unsafely housed. 
+bethlehem haven created a medical respite program that serves individuals and provides a safe recuperative environment as well as wrap-around supportive services like a full-time housing advocate. bethlehem haven partners with local community health systems and managed care organizations (mco).
+we believe in meeting people where they are. we see you. let’s build a strong foundation together.
+want to help support this work? visit our website:
+https://lnkd.in/gkc_jwac
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #medicalrespite</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>65</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
         <v>1132</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>38</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>medical respite program ? bethlehem started 29-bed post-acute recuperative care program partnership one local health systems 2018. real focus commitment behind medical respite program many individuals – result active substance use disorder ( i.e. , drugs , alcohol ) – needed level inpatient care . stabilized , place go continue recuperative care experiencing homelessness unsafely housed . bethlehem created medical respite program serves individuals provides safe recuperative environment well wrap-around supportive services like full-time housing advocate . bethlehem partners local community health systems managed care organizations ( mco ) . believe meeting people . see . let ’ build strong foundation together . want help support work ? visit website : https : //lnkd.in/gkc_jwac # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # medicalrespite</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Want to support our upcoming event?
-We are celebrating 40-plus years of providing a continuum of care for homeless individuals leading toward self-sufficiency. 
-The event also will highlight the 1410 Renovation Project, an opportunity to bring equity and a high standard of living to the 26 women who call Bethlehem Haven home. 
-We’re seeking support to help plan this special occasion, including planning committee members and sponsors. We hope to hold this event in the Fall of 2023.  
-To learn more about ways to get involved, contact Senior Manager of Development Kate Colligan: Kate.Colligan@bethlehemhaven.org 
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #EventPlanning </t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">want to support our upcoming event?
+we are celebrating 40-plus years of providing a continuum of care for homeless individuals leading toward self-sufficiency. 
+the event also will highlight the 1410 renovation project, an opportunity to bring equity and a high standard of living to the 26 women who call bethlehem haven home. 
+we’re seeking support to help plan this special occasion, including planning committee members and sponsors. we hope to hold this event in the fall of 2023.  
+to learn more about ways to get involved, contact senior manager of development kate colligan: kate.colligan@bethlehemhaven.org 
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #eventplanning </t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>84</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>6</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
         <v>4</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>724</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>22</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>want support upcoming event ? celebrating 40-plus years providing continuum care homeless individuals leading toward self-sufficiency . event also highlight 1410 renovation project , opportunity bring equity high standard living 26 women call bethlehem home . ’ seeking support help plan special occasion , including planning committee members sponsors . hope hold event fall 2023. learn ways get involved , contact senior manager development kate colligan : kate.colligan @ bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # eventplanning</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9752999999999999</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are honored to work with such wonderful people!
-For Tammy Jones, her work at Bethlehem Haven isn’t just about making sure its residents are fed three meals per day. She also strives to use food as a way to build community.
-“Most of them don’t go to restaurants,” says Tammy, who’s been with Bethlehem Haven since 2012. “When they’re here and eating they feel like they’re out at an event. They feel comfortable and relaxed. It makes them feel wanted.”
-Some of the most requested dishes that Tammy makes are hot beans, cornbread and chicken.
-“They really like the holidays when I cook for them,” Tammy says.
-In addition to preparing meals, Tammy works with others to plan the menu for three Bethlehem Haven programs across two locations. Bethlehem Haven contracts the service provider Community Kitchen to cook some of the meals and coordinates with volunteers to schedule days when they’ll provide breakfast, lunch or dinner. 
-Volunteers can be individuals or organizations and work with Tammy to plan the details for dropping off food or preparing it on site. The residents like the home-cooked and diverse meals that are shared with them.
-For those who volunteer to prepare a meal on site, Tammy reminds them to strive to meet the people who Bethlehem Haven serves where they are.
-It takes a lot of planning and attention to detail to keep everyone fed – and it’s expensive. On average, it costs more than $155,000 per year. Bethlehem Haven seeks funding to cover these costs and is grateful to the donors and volunteers who know that food plays a role in bringing stability and trust to those who have been without it for too long. 
-For Tammy, it’s all worth it. Her favorite part of her job is “the smiles of the women.”
-If you’d like to sponsor a meal for Bethlehem Haven, please contact info@bethlehemhaven.org to coordinate.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we are honored to work with such wonderful people!
+for tammy jones, her work at bethlehem haven isn’t just about making sure its residents are fed three meals per day. she also strives to use food as a way to build community.
+“most of them don’t go to restaurants,” says tammy, who’s been with bethlehem haven since 2012. “when they’re here and eating they feel like they’re out at an event. they feel comfortable and relaxed. it makes them feel wanted.”
+some of the most requested dishes that tammy makes are hot beans, cornbread and chicken.
+“they really like the holidays when i cook for them,” tammy says.
+in addition to preparing meals, tammy works with others to plan the menu for three bethlehem haven programs across two locations. bethlehem haven contracts the service provider community kitchen to cook some of the meals and coordinates with volunteers to schedule days when they’ll provide breakfast, lunch or dinner. 
+volunteers can be individuals or organizations and work with tammy to plan the details for dropping off food or preparing it on site. the residents like the home-cooked and diverse meals that are shared with them.
+for those who volunteer to prepare a meal on site, tammy reminds them to strive to meet the people who bethlehem haven serves where they are.
+it takes a lot of planning and attention to detail to keep everyone fed – and it’s expensive. on average, it costs more than $155,000 per year. bethlehem haven seeks funding to cover these costs and is grateful to the donors and volunteers who know that food plays a role in bringing stability and trust to those who have been without it for too long. 
+for tammy, it’s all worth it. her favorite part of her job is “the smiles of the women.”
+if you’d like to sponsor a meal for bethlehem haven, please contact info@bethlehemhaven.org to coordinate.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness
 </t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>101</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>11</v>
       </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
         <v>1932</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>43</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>7</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>honored work wonderful people ! tammy jones , work bethlehem ’ making sure residents fed three meals per day . also strives use food way build community . “ ’ go restaurants , ” says tammy , ’ bethlehem since 2012 . “ ’ eating feel like ’ event . feel comfortable relaxed . makes feel wanted. ” requested dishes tammy makes hot beans , cornbread chicken . “ really like holidays cook , ” tammy says . addition preparing meals , tammy works others plan menu three bethlehem programs across two locations . bethlehem contracts service provider community kitchen cook meals coordinates volunteers schedule days ’ provide breakfast , lunch dinner . volunteers individuals organizations work tammy plan details dropping food preparing site . residents like home-cooked diverse meals shared . volunteer prepare meal site , tammy reminds strive meet people bethlehem serves . takes lot planning attention detail keep everyone fed – ’ expensive . average , costs $ 155,000 per year . bethlehem seeks funding cover costs grateful donors volunteers know food plays role bringing stability trust without long . tammy , ’ worth . favorite part job “ smiles women. ” ’ like sponsor meal bethlehem , please contact info @ bethlehemhaven.org coordinate . # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>0.9922</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>#DidYouKnow
-Bethlehem Haven and Duquesne University colleagues were part of a panel at the Urban Affairs Association’s 2023 conference in Nashville, Tennessee in April. 
-The team took part in the "Innovations and Policy Solutions for Preventing Homelessness" panel discussion. The research team provided findings from their paper, “Bridging the Gap: Working with Bethlehem Haven to Understand How Medical Respite Programs Help Individuals who are Homeless.” 
-This research was made possible thanks in part to a Richard King Mellon Foundation grant.
-Learn more about our work: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness
-#RichardKMellon #Foundation #MedicalRespite #DuquesneUniversity</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>#didyouknow
+bethlehem haven and duquesne university colleagues were part of a panel at the urban affairs association’s 2023 conference in nashville, tennessee in april. 
+the team took part in the "innovations and policy solutions for preventing homelessness" panel discussion. the research team provided findings from their paper, “bridging the gap: working with bethlehem haven to understand how medical respite programs help individuals who are homeless.” 
+this research was made possible thanks in part to a richard king mellon foundation grant.
+learn more about our work: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness
+#richardkmellon #foundation #medicalrespite #duquesneuniversity</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>49</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>3</v>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
         <v>758</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>26</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>12</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t># didyouknow bethlehem duquesne university colleagues part panel urban affairs association ’ 2023 conference nashville , tennessee april . team took part `` innovations policy solutions preventing homelessness '' panel discussion . research team provided findings paper , “ bridging gap : working bethlehem understand medical respite programs help individuals homeless. ” research made possible thanks part richard king mellon foundation grant . learn work : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # richardkmellon # foundation # medicalrespite # duquesneuniversity</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>0.8270999999999999</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CARDS OF COMPASSION: The fifth grade class at Blessed Francis Seelos Academy in Wexford handmade cards for the 26 women who recently moved to their temporary home in Shadyside while the 1410 Fifth Ave. renovation is underway. 
-The students were encouraged to think about how someone might feel moving to a new place, even if it's only just a few miles away. They discussed how the transition could be difficult for some residents who felt safe in their home and now are adapting to a different neighborhood. 
-With this in mind, the students made this a project during Catholic Schools Week and created cards with a variety of messages to inspire women who may feel alone or are facing troubles we may not know about because everyone deserves love and support.
-Connect with us:  https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cards of compassion: the fifth grade class at blessed francis seelos academy in wexford handmade cards for the 26 women who recently moved to their temporary home in shadyside while the 1410 fifth ave. renovation is underway. 
+the students were encouraged to think about how someone might feel moving to a new place, even if it's only just a few miles away. they discussed how the transition could be difficult for some residents who felt safe in their home and now are adapting to a different neighborhood. 
+with this in mind, the students made this a project during catholic schools week and created cards with a variety of messages to inspire women who may feel alone or are facing troubles we may not know about because everyone deserves love and support.
+connect with us:  https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness
 </t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>185</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>8</v>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
         <v>896</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>21</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>cards compassion : fifth grade class blessed francis seelos academy wexford handmade cards 26 women recently moved temporary home shadyside 1410 fifth ave. renovation underway . students encouraged think someone might feel moving new place , even 's miles away . discussed transition could difficult residents felt safe home adapting different neighborhood . mind , students made project catholic schools week created cards variety messages inspire women may feel alone facing troubles may know everyone deserves love support . connect us : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>0.9545</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spring is a season of transformation – and we are embracing our own time of renewal at Bethlehem Haven with the renovation of our 1410 Fifth Ave. residence in Uptown. 
-Pittsburgh-based Mosites Construction and Development Company has completed the site clean-out and some preliminary pre-demolition -- a big change already! The next step is to receive the construction permit from the City of Pittsburgh so that demolition can begin. 
-In the meantime, the 26 women who call 1410 Fifth Ave. their home, are settling into their temporary residence in Shadyside. We look forward to transforming their permanent residence and welcoming them back into a beautifully renovated space in the future. 
-These women are mothers, daughters, and granddaughters. They’re our neighbors and fellow community members. 
-We see them and are privileged to work with community leaders, organizations and supporters like you to build a strong foundation together.
-If you’d like to help, please consider making a donation. We are excited to see how the seeds we’re planting now will grow into something truly transformative.
-Visit: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">spring is a season of transformation – and we are embracing our own time of renewal at bethlehem haven with the renovation of our 1410 fifth ave. residence in uptown. 
+pittsburgh-based mosites construction and development company has completed the site clean-out and some preliminary pre-demolition -- a big change already! the next step is to receive the construction permit from the city of pittsburgh so that demolition can begin. 
+in the meantime, the 26 women who call 1410 fifth ave. their home, are settling into their temporary residence in shadyside. we look forward to transforming their permanent residence and welcoming them back into a beautifully renovated space in the future. 
+these women are mothers, daughters, and granddaughters. they’re our neighbors and fellow community members. 
+we see them and are privileged to work with community leaders, organizations and supporters like you to build a strong foundation together.
+if you’d like to help, please consider making a donation. we are excited to see how the seeds we’re planting now will grow into something truly transformative.
+visit: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness
 </t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>252</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>19</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>1</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>5</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>1230</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>35</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>7</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>spring season transformation – embracing time renewal bethlehem renovation 1410 fifth ave. residence uptown . pittsburgh-based mosites construction development company completed site clean-out preliminary pre-demolition -- big change already ! next step receive construction permit city pittsburgh demolition begin . meantime , 26 women call 1410 fifth ave. home , settling temporary residence shadyside . look forward transforming permanent residence welcoming back beautifully renovated space future . women mothers , daughters , granddaughters . ’ neighbors fellow community members . see privileged work community leaders , organizations supporters like build strong foundation together . ’ like help , please consider making donation . excited see seeds ’ planting grow something truly transformative . visit : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>0.9823</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wishing everyone a safe and happy Memorial Day! </t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">wishing everyone a safe and happy memorial day! </t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>58</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>4</v>
       </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
         <v>48</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>wishing everyone safe happy memorial day !</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>0.8313</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">When we place people in shelters – but without the tools for them to be successful – we aren’t serving them in a way that leads to self-sufficiency. 
-At Bethlehem Haven, we know it's  wrap-around social support services that make up the fundamentals of our low-barrier harm reduction model. 
-It's meeting people where they are. It's assessing what those needs are. Doing so allows us to build a relationship that leads to trust. This allows our staff to work on the other important interventions that lead toward stabilization.
-We see you. Let’s build a strong foundation together.  
-Visit: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">when we place people in shelters – but without the tools for them to be successful – we aren’t serving them in a way that leads to self-sufficiency. 
+at bethlehem haven, we know it's  wrap-around social support services that make up the fundamentals of our low-barrier harm reduction model. 
+it's meeting people where they are. it's assessing what those needs are. doing so allows us to build a relationship that leads to trust. this allows our staff to work on the other important interventions that lead toward stabilization.
+we see you. let’s build a strong foundation together.  
+visit: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness
 </t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>106</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>4</v>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>710</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>27</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>7</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>place people shelters – without tools successful – ’ serving way leads self-sufficiency . bethlehem , know wrap-around social support services make fundamentals low-barrier harm reduction model . 's meeting people . 's assessing needs . allows us build relationship leads trust . allows staff work important interventions lead toward stabilization . see . let ’ build strong foundation together . visit : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>0.5466</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What causes homelessness?
-Poverty and a lack of affordable housing are the main causes of homelessness. Bethlehem Haven serves individuals who have cycled through other homeless services and for various reasons have been denied continued access to those services. 
-Homelessness services trauma is a reality for some trying to access service, which can add to the trauma that brought them to homelessness.
-Our focus at Bethlehem Haven is not only housing, but to disrupt the cycle of trauma for those experiencing homelessness. What variables can we help to change that will lead to sustainable self-sufficiency?
-You can support your neighbors in need by donating to this program with the #LinkInBio
-We see you. Let’s build a strong foundation together. 
-Visit: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness 
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">what causes homelessness?
+poverty and a lack of affordable housing are the main causes of homelessness. bethlehem haven serves individuals who have cycled through other homeless services and for various reasons have been denied continued access to those services. 
+homelessness services trauma is a reality for some trying to access service, which can add to the trauma that brought them to homelessness.
+our focus at bethlehem haven is not only housing, but to disrupt the cycle of trauma for those experiencing homelessness. what variables can we help to change that will lead to sustainable self-sufficiency?
+you can support your neighbors in need by donating to this program with the #linkinbio
+we see you. let’s build a strong foundation together. 
+visit: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness 
 </t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>68</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>4</v>
       </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
         <v>884</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>24</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>causes homelessness ? poverty lack affordable housing main causes homelessness . bethlehem serves individuals cycled homeless services various reasons denied continued access services . homelessness services trauma reality trying access service , add trauma brought homelessness . focus bethlehem housing , disrupt cycle trauma experiencing homelessness . variables help change lead sustainable self-sufficiency ? support neighbors need donating program # linkinbio see . let ’ build strong foundation together . visit : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.8205</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#DidYouKnow 
-Every Friday in May, Bethlehem Haven’s Medical Respite is hosting tours for AHN Internal Medicine Residents.
-These doctors are learning how Medical Respite can be used as a safe recovery space for folks experiencing homelessness. 
-Another goal is to learn more about social determinants of health (SDOH). These are the conditions in the environments where people are born, live, learn, work, play, worship, and age that affect a wide range of health, functioning, and quality-of-life outcomes and risks.
-Social determinants of health have a major impact on people’s health, well-being, and quality of life. Examples of SDOH include:
-1. Safe housing, transportation, and neighborhoods
-2. Racism, discrimination, and violence
-3. Education, job opportunities, and income
-4. Access to nutritious foods and physical activity opportunities
-5. Polluted air and water
-6. Language and literacy skills
-Learn how Bethlehem Haven is working to end the cycle of homelessness and how you can get involved to support our neighbors in need: 
-Visit: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #AHN #SocialDeterminants #SafeHousing 
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#didyouknow 
+every friday in may, bethlehem haven’s medical respite is hosting tours for ahn internal medicine residents.
+these doctors are learning how medical respite can be used as a safe recovery space for folks experiencing homelessness. 
+another goal is to learn more about social determinants of health (sdoh). these are the conditions in the environments where people are born, live, learn, work, play, worship, and age that affect a wide range of health, functioning, and quality-of-life outcomes and risks.
+social determinants of health have a major impact on people’s health, well-being, and quality of life. examples of sdoh include:
+1. safe housing, transportation, and neighborhoods
+2. racism, discrimination, and violence
+3. education, job opportunities, and income
+4. access to nutritious foods and physical activity opportunities
+5. polluted air and water
+6. language and literacy skills
+learn how bethlehem haven is working to end the cycle of homelessness and how you can get involved to support our neighbors in need: 
+visit: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #ahn #socialdeterminants #safehousing 
 </t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>70</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>6</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
         <v>1207</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>51</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>11</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t># didyouknow every friday may , bethlehem ’ medical respite hosting tours ahn internal medicine residents . doctors learning medical respite used safe recovery space folks experiencing homelessness . another goal learn social determinants health ( sdoh ) . conditions environments people born , live , learn , work , play , worship , age affect wide range health , functioning , quality-of-life outcomes risks . social determinants health major impact people ’ health , well-being , quality life . examples sdoh include : 1. safe housing , transportation , neighborhoods 2. racism , discrimination , violence 3. education , job opportunities , income 4. access nutritious foods physical activity opportunities 5. polluted air water 6. language literacy skills learn bethlehem working end cycle homelessness get involved support neighbors need : visit : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # ahn # socialdeterminants # safehousing</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>0.4588</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bethlehem Haven knows that prevention is the best line of defense against homelessness. 
-A one-time resource, our homeless prevention program Safe at Home works in partnership with the United Way to provide a bridge to financial stability. 
-This program steps in when there is an acute crisis going on in an individual’s life that puts them one step away from eviction, homelessness or utility shut off. 
-You can support your neighbors in need by donating to this program with the #LinkInBio
-We see you. Let’s build a strong foundation together. 
-Visit: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bethlehem haven knows that prevention is the best line of defense against homelessness. 
+a one-time resource, our homeless prevention program safe at home works in partnership with the united way to provide a bridge to financial stability. 
+this program steps in when there is an acute crisis going on in an individual’s life that puts them one step away from eviction, homelessness or utility shut off. 
+you can support your neighbors in need by donating to this program with the #linkinbio
+we see you. let’s build a strong foundation together. 
+visit: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>52</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>3</v>
       </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
       <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
         <v>1</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>673</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>21</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>bethlehem knows prevention best line defense homelessness . one-time resource , homeless prevention program safe home works partnership united way provide bridge financial stability . program steps acute crisis going individual ’ life puts one step away eviction , homelessness utility shut . support neighbors need donating program # linkinbio see . let ’ build strong foundation together . visit : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>0.8519</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">What is an emergency shelter?
-An emergency shelter is real-in-time acute sheltering for individuals who are unstably housed or homeless. 
-For nearly half a century, Bethlehem Haven has provided services to individuals experiencing homelessness. We are the only emergency women's shelter in Allegheny County which also serves gender non-conforming people. 
-Bethlehem Haven strives to provide immediate relief and safety, and the individual chooses whether they would like supportive services.  
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">what is an emergency shelter?
+an emergency shelter is real-in-time acute sheltering for individuals who are unstably housed or homeless. 
+for nearly half a century, bethlehem haven has provided services to individuals experiencing homelessness. we are the only emergency women's shelter in allegheny county which also serves gender non-conforming people. 
+bethlehem haven strives to provide immediate relief and safety, and the individual chooses whether they would like supportive services.  
 </t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>70</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>3</v>
       </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
         <v>497</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>11</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>emergency shelter ? emergency shelter real-in-time acute sheltering individuals unstably housed homeless . nearly half century , bethlehem provided services individuals experiencing homelessness . emergency women 's shelter allegheny county also serves gender non-conforming people . bethlehem strives provide immediate relief safety , individual chooses whether would like supportive services .</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>0.4215</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Our philosophy makes a difference to those we are privileged enough to serve. 
-Bethlehem Haven employs the philosophy of low-barrier harm reduction in everything we do. This approach focuses on meeting unhoused individuals where they are in their lived experiences. 
-Our approach to low-barrier harm reduction is that we welcome everybody wherever they are in their journey.
-We see you. Let’s build a strong foundation together. 
-Visit: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">our philosophy makes a difference to those we are privileged enough to serve. 
+bethlehem haven employs the philosophy of low-barrier harm reduction in everything we do. this approach focuses on meeting unhoused individuals where they are in their lived experiences. 
+our approach to low-barrier harm reduction is that we welcome everybody wherever they are in their journey.
+we see you. let’s build a strong foundation together. 
+visit: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>39</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>2</v>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
         <v>556</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>20</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>7</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>philosophy makes difference privileged enough serve . bethlehem employs philosophy low-barrier harm reduction everything . approach focuses meeting unhoused individuals lived experiences . approach low-barrier harm reduction welcome everybody wherever journey . see . let ’ build strong foundation together . visit : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are so thankful for our amazing volunteers like Rev. Benetta and the United Fellowship of Kingdom Church who provided breakfast for our guests at Bethlehem Haven. 
-Want to volunteer or donate to provide meals to our guests? 
-Visit: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we are so thankful for our amazing volunteers like rev. benetta and the united fellowship of kingdom church who provided breakfast for our guests at bethlehem haven. 
+want to volunteer or donate to provide meals to our guests? 
+visit: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>54</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
         <v>351</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>15</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>7</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>thankful amazing volunteers like rev . benetta united fellowship kingdom church provided breakfast guests bethlehem . want volunteer donate provide meals guests ? visit : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>0.9201</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Learn more about our Respite program:  
-We are an interdisciplinary team of nurses/doctors, social services and guest services. We also have external partners in the home health agencies and hospitals, cell phone providers, as well as agencies who can get the housing conversation started.  
-This program is person-centered. Our team supports people to see the best in themselves so that they want to take positive steps.  
-Here, we know each person is a valuable human with a range of skills, emotions, struggles.
-Learn more about our work and how you can get involved: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">learn more about our respite program:  
+we are an interdisciplinary team of nurses/doctors, social services and guest services. we also have external partners in the home health agencies and hospitals, cell phone providers, as well as agencies who can get the housing conversation started.  
+this program is person-centered. our team supports people to see the best in themselves so that they want to take positive steps.  
+here, we know each person is a valuable human with a range of skills, emotions, struggles.
+learn more about our work and how you can get involved: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>44</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>4</v>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
         <v>690</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>26</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>7</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>learn respite program : interdisciplinary team nurses/doctors , social services guest services . also external partners home health agencies hospitals , cell phone providers , well agencies get housing conversation started . program person-centered . team supports people see best want take positive steps . , know person valuable human range skills , emotions , struggles . learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you to everyone who participated in “Pennies for Haven.” Your donations from the Magee-Womens Hospital Of UPMC Pennies for Haven campaign in March 2023 will help us support the important work of Bethlehem Haven. 
-Together, we can end the cycle of homelessness. We see you. Let’s build a strong foundation together. 
-Learn more about our work and how you can get involved: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #InspiredWomen #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thank you to everyone who participated in “pennies for haven.” your donations from the magee-womens hospital of upmc pennies for haven campaign in march 2023 will help us support the important work of bethlehem haven. 
+together, we can end the cycle of homelessness. we see you. let’s build a strong foundation together. 
+learn more about our work and how you can get involved: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #inspiredwomen #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>57</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>5</v>
       </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
       <c r="F65" t="n">
         <v>0</v>
       </c>
       <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
         <v>499</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>19</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>7</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>thank everyone participated “ pennies haven. ” donations magee-womens hospital upmc pennies campaign march 2023 help us support important work bethlehem . together , end cycle homelessness . see . let ’ build strong foundation together . learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # inspiredwomen # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>0.9001</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Thank you to the Inspired Women Sewickley Chapter for Paying it Forward with a generous donation to Bethlehem Haven! 
-It is because of our incredible supporters that we are able to provide necessary services to the guests we are honored to serve. 
-We see you. Let’s build a strong foundation together.  
- Learn more about our work and how you can get involved: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #InspiredWomen #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>thank you to the inspired women sewickley chapter for paying it forward with a generous donation to bethlehem haven! 
+it is because of our incredible supporters that we are able to provide necessary services to the guests we are honored to serve. 
+we see you. let’s build a strong foundation together.  
+ learn more about our work and how you can get involved: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #inspiredwomen #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>125</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>7</v>
       </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
         <v>481</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>16</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>7</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>thank inspired women sewickley chapter paying forward generous donation bethlehem ! incredible supporters able provide necessary services guests honored serve . see . let ’ build strong foundation together . learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # inspiredwomen # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>0.9601</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We want to take a moment during National Volunteer Month to thank our incredible volunteers! 
-Bethlehem Haven is able to do great things for the residents we are honored to serve because of our incredible network of support. We couldn’t do it without the strength and love from our community members! 
-Want to learn more about how you can support Bethlehem Haven? Visit our website: https://bethlehemhaven.org
-#NationalVolunteerMonth #BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we want to take a moment during national volunteer month to thank our incredible volunteers! 
+bethlehem haven is able to do great things for the residents we are honored to serve because of our incredible network of support. we couldn’t do it without the strength and love from our community members! 
+want to learn more about how you can support bethlehem haven? visit our website: https://bethlehemhaven.org
+#nationalvolunteermonth #bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>49</v>
       </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
@@ -2856,727 +3916,1063 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
         <v>524</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>17</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>want take moment national volunteer month thank incredible volunteers ! bethlehem able great things residents honored serve incredible network support . ’ without strength love community members ! want learn support bethlehem ? visit website : https : //bethlehemhaven.org # nationalvolunteermonth # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>0.8998</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>What makes our Respite program unique? 
-This program is special to Bethlehem Haven and the Pittsburgh region. It serves individuals and provides a safe recuperative environment, as well as wrap-around supportive services such as a full-time housing advocate. 
-Folks can also  receive physical therapy, occupational therapy, wound care, and infusion antibiotics. We are also taking softer admissions:  diabetes management, post-cardiac care. Respite is also very different from a hospital. At the hospital folks often feel isolated and “unseen.”  
-Often when people come to us from the hospital, they have minimal personal belongings, including clothing and personal care items. It’s through the generosity of our community that we can provide essentials as they work towards healing. 
-Learn more about our work and how you can get involved: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>what makes our respite program unique? 
+this program is special to bethlehem haven and the pittsburgh region. it serves individuals and provides a safe recuperative environment, as well as wrap-around supportive services such as a full-time housing advocate. 
+folks can also  receive physical therapy, occupational therapy, wound care, and infusion antibiotics. we are also taking softer admissions:  diabetes management, post-cardiac care. respite is also very different from a hospital. at the hospital folks often feel isolated and “unseen.”  
+often when people come to us from the hospital, they have minimal personal belongings, including clothing and personal care items. it’s through the generosity of our community that we can provide essentials as they work towards healing. 
+learn more about our work and how you can get involved: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>50</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>3</v>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
         <v>959</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>32</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>7</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>makes respite program unique ? program special bethlehem pittsburgh region . serves individuals provides safe recuperative environment , well wrap-around supportive services full-time housing advocate . folks also receive physical therapy , occupational therapy , wound care , infusion antibiotics . also taking softer admissions : diabetes management , post-cardiac care . respite also different hospital . hospital folks often feel isolated “ unseen. ” often people come us hospital , minimal personal belongings , including clothing personal care items . ’ generosity community provide essentials work towards healing . learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>0.9612000000000001</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#KindessMatters: Thank you to everyone who shared a meal with Bethlehem Haven in March including: Blessed Trinity Parish, Beth EL Congregation of the South Hills, Barb Griffith, Regina Coeli Parish, Antioch Baptist Church, Our Lady of Mt. Carmel Parish, Giant Eagle of Robinson Township's Chef Luchia, St. Brendan's Episcopal Church, St. Paul's Episcopal Church, Sewickley Presbyterian Church and Yolanda Williams of Highmark. 
-If you’d like to sponsor a meal for Bethlehem Haven, please contact info@bethlehemhaven.org to coordinate.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness   
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#kindessmatters: thank you to everyone who shared a meal with bethlehem haven in march including: blessed trinity parish, beth el congregation of the south hills, barb griffith, regina coeli parish, antioch baptist church, our lady of mt. carmel parish, giant eagle of robinson township's chef luchia, st. brendan's episcopal church, st. paul's episcopal church, sewickley presbyterian church and yolanda williams of highmark. 
+if you’d like to sponsor a meal for bethlehem haven, please contact info@bethlehemhaven.org to coordinate.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness   
 </t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>58</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>3</v>
       </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
         <v>627</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>30</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t># kindessmatters : thank everyone shared meal bethlehem march including : blessed trinity parish , beth el congregation south hills , barb griffith , regina coeli parish , antioch baptist church , lady mt . carmel parish , giant eagle robinson township 's chef luchia , st. brendan 's episcopal church , st. paul 's episcopal church , sewickley presbyterian church yolanda williams highmark . ’ like sponsor meal bethlehem , please contact info @ bethlehemhaven.org coordinate . # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9118000000000001</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are grateful to everyone who joined us in celebrating Easter at Bethlehem Haven! 
-We have the most wonderful volunteers who make the holidays extra special for those who call Bethlehem Haven home. 
-Thank you to: Theresa Lee for the paper bunnies with the chocolate eggs and for the cake, Robin Khorey and St. George Antiochian Orthodox Cathedral who donated Easter dinner, the cake and the Easter baskets, as well as Reggie’s Angels who donated their time cooking breakfast and brought Avon products.
-Everyone  enjoyed the food and loved their gifts.
-Tammy, thank you for coming in as well to share in this special day and take these photos. We really appreciate you.
-Learn more about our work and how you can get involved: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness 
-#Easter #Holidays #BeKind </t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we are grateful to everyone who joined us in celebrating easter at bethlehem haven! 
+we have the most wonderful volunteers who make the holidays extra special for those who call bethlehem haven home. 
+thank you to: theresa lee for the paper bunnies with the chocolate eggs and for the cake, robin khorey and st. george antiochian orthodox cathedral who donated easter dinner, the cake and the easter baskets, as well as reggie’s angels who donated their time cooking breakfast and brought avon products.
+everyone  enjoyed the food and loved their gifts.
+tammy, thank you for coming in as well to share in this special day and take these photos. we really appreciate you.
+learn more about our work and how you can get involved: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness 
+#easter #holidays #bekind </t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>94</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>3</v>
       </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
         <v>875</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>27</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>10</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>grateful everyone joined us celebrating easter bethlehem ! wonderful volunteers make holidays extra special call bethlehem home . thank : theresa lee paper bunnies chocolate eggs cake , robin khorey st. george antiochian orthodox cathedral donated easter dinner , cake easter baskets , well reggie ’ angels donated time cooking breakfast brought avon products . everyone enjoyed food loved gifts . tammy , thank coming well share special day take photos . really appreciate . learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # easter # holidays # bekind</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grateful for Subaru of America! Recently, we received a large supply of new, neutral colored socks to provide to our folks in our Medical Respite program.
-The majority of folks served by Respite are men. Often when they come from the hospital, the individual has little in the way of clothing or personal care items.  
-Having neutral colored socks will allow us to provide clean, warm footwear to the men, and will also easily allow us to extend the provision to the women who arrive for respite.
-#KindessMatters 
-Learn more about our work and how you can get involved: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">grateful for subaru of america! recently, we received a large supply of new, neutral colored socks to provide to our folks in our medical respite program.
+the majority of folks served by respite are men. often when they come from the hospital, the individual has little in the way of clothing or personal care items.  
+having neutral colored socks will allow us to provide clean, warm footwear to the men, and will also easily allow us to extend the provision to the women who arrive for respite.
+#kindessmatters 
+learn more about our work and how you can get involved: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>88</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
       <c r="F71" t="n">
         <v>0</v>
       </c>
       <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
         <v>689</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>23</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>grateful subaru america ! recently , received large supply new , neutral colored socks provide folks medical respite program . majority folks served respite men . often come hospital , individual little way clothing personal care items . neutral colored socks allow us provide clean , warm footwear men , also easily allow us extend provision women arrive respite . # kindessmatters learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>0.9432</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#DidYouKnow 
-WE ARE OPEN: WELLNESS CLINIC: Located in the bottom level of our 905 Watson St. location, the Wellness Clinic will be rolling out services over the next few months to begin providing integrated physical, behavioral and dental health services for adults. 
-Bethlehem Haven recognizes that we need to get the individuals we serve connected to these resources in an efficient, accessible way. 
-Learn more about our work and how you can get involved:
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#didyouknow 
+we are open: wellness clinic: located in the bottom level of our 905 watson st. location, the wellness clinic will be rolling out services over the next few months to begin providing integrated physical, behavioral and dental health services for adults. 
+bethlehem haven recognizes that we need to get the individuals we serve connected to these resources in an efficient, accessible way. 
+learn more about our work and how you can get involved:
 https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>41</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>2</v>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
         <v>578</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>21</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t># didyouknow open : wellness clinic : located bottom level 905 watson st. location , wellness clinic rolling services next months begin providing integrated physical , behavioral dental health services adults . bethlehem recognizes need get individuals serve connected resources efficient , accessible way . learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>0.8225</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We are so grateful for our incredible volunteers! 
-Thank you to  Robin Khorey along with several members of Saint George Antiochian Orthodox Cathedral who provided Easter Baskets on Sunday, March 26. They are also preparing Easter dinner on April 9th for our guests for our Shelter, Respite, and Residential Programs.  
-We see you. Let’s build a strong foundation together. 
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">we are so grateful for our incredible volunteers! 
+thank you to  robin khorey along with several members of saint george antiochian orthodox cathedral who provided easter baskets on sunday, march 26. they are also preparing easter dinner on april 9th for our guests for our shelter, respite, and residential programs.  
+we see you. let’s build a strong foundation together. 
 https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>57</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>1</v>
       </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
         <v>493</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>19</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>7</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>grateful incredible volunteers ! thank robin khorey along several members saint george antiochian orthodox cathedral provided easter baskets sunday , march 26. also preparing easter dinner april 9th guests shelter , respite , residential programs . see . let ’ build strong foundation together . https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>0.8439</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>73</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>MEMORABLE MEALS: We’re grateful for the generosity of Mosites Construction and Development Company, which recently purchased a breakfast and pizza dinner for our residents. It was a pleasant treat while everyone adapts to our temporary location. 
-If you’d like to sponsor a meal for Bethlehem Haven, please contact info@bethlehemhaven.org to coordinate.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>memorable meals: we’re grateful for the generosity of mosites construction and development company, which recently purchased a breakfast and pizza dinner for our residents. it was a pleasant treat while everyone adapts to our temporary location. 
+if you’d like to sponsor a meal for bethlehem haven, please contact info@bethlehemhaven.org to coordinate.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>188</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>6</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>2</v>
       </c>
-      <c r="F74" t="n">
-        <v>0</v>
-      </c>
       <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
         <v>442</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>15</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>7</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>memorable meals : ’ grateful generosity mosites construction development company , recently purchased breakfast pizza dinner residents . pleasant treat everyone adapts temporary location . ’ like sponsor meal bethlehem , please contact info @ bethlehemhaven.org coordinate . # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>0.9442</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>74</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ON THE MOVE: Bethlehem Haven and the individuals we have the privilege to serve successfully vacated our Fifth Avenue location so that renovations can get underway. 
-Everyone is now getting settled in our temporary location in Shadyside, where we’ll be for the next nine months. We’re grateful to a group of tireless volunteers from Saint Aidan Parish in Wexford; they carried boxes, moved furniture, cleaned and helped to coordinate our move earlier in March. In April, full-scale renovation work will get underway with a lot of demolition at 1410 Fifth Ave. 
-Learn more about our work and how you can get involved: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">on the move: bethlehem haven and the individuals we have the privilege to serve successfully vacated our fifth avenue location so that renovations can get underway. 
+everyone is now getting settled in our temporary location in shadyside, where we’ll be for the next nine months. we’re grateful to a group of tireless volunteers from saint aidan parish in wexford; they carried boxes, moved furniture, cleaned and helped to coordinate our move earlier in march. in april, full-scale renovation work will get underway with a lot of demolition at 1410 fifth ave. 
+learn more about our work and how you can get involved: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>69</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>4</v>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
       <c r="F75" t="n">
         <v>0</v>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
         <v>734</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>23</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>7</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>move : bethlehem individuals privilege serve successfully vacated fifth avenue location renovations get underway . everyone getting settled temporary location shadyside , ’ next nine months . ’ grateful group tireless volunteers saint aidan parish wexford ; carried boxes , moved furniture , cleaned helped coordinate move earlier march . april , full-scale renovation work get underway lot demolition 1410 fifth ave. learn work get involved : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>0.8270999999999999</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">How did the COVID-19 pandemic impact Bethlehem Haven’s emergency shelter?
-During the pandemic, many people who were experiencing homelessness were with us for an extended period of time. Shelter is not permanent housing or permanent support. 
-Because of the pandemic and the challenges moving individuals along that continuum to try to find them permanent supportive housing, many people stayed with Bethlehem Haven longer than 30 days. We meet people where they are and support them in their journey.
-Learn more about our work: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">how did the covid-19 pandemic impact bethlehem haven’s emergency shelter?
+during the pandemic, many people who were experiencing homelessness were with us for an extended period of time. shelter is not permanent housing or permanent support. 
+because of the pandemic and the challenges moving individuals along that continuum to try to find them permanent supportive housing, many people stayed with bethlehem haven longer than 30 days. we meet people where they are and support them in their journey.
+learn more about our work: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>56</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>2</v>
       </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
         <v>646</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>20</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>7</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>covid-19 pandemic impact bethlehem ’ emergency shelter ? pandemic , many people experiencing homelessness us extended period time . shelter permanent housing permanent support . pandemic challenges moving individuals along continuum try find permanent supportive housing , many people stayed bethlehem longer 30 days . meet people support journey . learn work : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>0.6486</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>76</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Homelessness is the outcome of trauma or other dynamic life events. Together we can work on identifying those experiences and create a customized plan to the specific needs of each individual. From acute homelessness through the continuum to independent housing, our programs offer support to the whole person (also known as holistic support).
-Homelessness is not a new public health crisis. Many regions across the country,  organizations, advocacy groups and political entities refer to this as a new public health crisis, but it's not. As demonstrated by more than 40 years of service to the community, Bethlehem Haven has been full every single night since opening its doors. 
-We see you. Let’s build a strong foundation together. 
-Learn more about our work: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>homelessness is the outcome of trauma or other dynamic life events. together we can work on identifying those experiences and create a customized plan to the specific needs of each individual. from acute homelessness through the continuum to independent housing, our programs offer support to the whole person (also known as holistic support).
+homelessness is not a new public health crisis. many regions across the country,  organizations, advocacy groups and political entities refer to this as a new public health crisis, but it's not. as demonstrated by more than 40 years of service to the community, bethlehem haven has been full every single night since opening its doors. 
+we see you. let’s build a strong foundation together. 
+learn more about our work: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>49</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>2</v>
       </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
         <v>880</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>28</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>7</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>homelessness outcome trauma dynamic life events . together work identifying experiences create customized plan specific needs individual . acute homelessness continuum independent housing , programs offer support whole person ( also known holistic support ) . homelessness new public health crisis . many regions across country , organizations , advocacy groups political entities refer new public health crisis , 's . demonstrated 40 years service community , bethlehem full every single night since opening doors . see . let ’ build strong foundation together . learn work : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>77</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>We are here to support and uplift the most vulnerable among us.
-As demonstrated by 41 years of service to the community, Bethlehem Haven has been full every single night since opening our doors. 
-We welcome everybody no matter where they are in their journey. 
-We see you. Let’s build a strong foundation together.
-Learn more about our work: https://bethlehemhaven.org</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>we are here to support and uplift the most vulnerable among us.
+as demonstrated by 41 years of service to the community, bethlehem haven has been full every single night since opening our doors. 
+we welcome everybody no matter where they are in their journey. 
+we see you. let’s build a strong foundation together.
+learn more about our work: https://bethlehemhaven.org</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>42</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>2</v>
       </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
         <v>371</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>11</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>support uplift vulnerable among us . demonstrated 41 years service community , bethlehem full every single night since opening doors . welcome everybody matter journey . see . let ’ build strong foundation together . learn work : https : //bethlehemhaven.org</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>78</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Homelessness is not a new public health crisis. 
-Homelessness is the outcome of the trauma or the dynamic event that brought that individual to homelessness. 
-Together we can work on identifying those experiences and create a customized plan to the specific needs of each individual. From acute homelessness through the continuum to independent housing, our programs offer support to the whole person (or holistic support).
-We see you… Let’s build a strong foundation together.
-Learn more and support the work of Bethlehem Haven:
-https://lnkd.in/g_mmNdUf
- #BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> homelessness is not a new public health crisis. 
+homelessness is the outcome of the trauma or the dynamic event that brought that individual to homelessness. 
+together we can work on identifying those experiences and create a customized plan to the specific needs of each individual. from acute homelessness through the continuum to independent housing, our programs offer support to the whole person (or holistic support).
+we see you… let’s build a strong foundation together.
+learn more and support the work of bethlehem haven:
+https://lnkd.in/g_mmnduf
+ #bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>36</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>1</v>
       </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
       <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
         <v>1</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>649</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>22</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>homelessness new public health crisis . homelessness outcome trauma dynamic event brought individual homelessness . together work identifying experiences create customized plan specific needs individual . acute homelessness continuum independent housing , programs offer support whole person ( holistic support ) . see you… let ’ build strong foundation together . learn support work bethlehem : https : //lnkd.in/g_mmnduf # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>79</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Our journey to help end homelessness is possible because of the support from our community! 
-#DidYouKnow In 2016, Bethlehem Haven became part of the Pittsburgh Mercy Family of Care™, ensuring its sustainability as a provider of shelter, housing and services to vulnerable women in Allegheny County. 
-Today, Bethlehem Haven is better equipped than ever by providing long-term solutions that combine “health and housing” to help end the cycle of homelessness. 
-Learn more: https://bethlehemhaven.org
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>our journey to help end homelessness is possible because of the support from our community! 
+#didyouknow in 2016, bethlehem haven became part of the pittsburgh mercy family of care™, ensuring its sustainability as a provider of shelter, housing and services to vulnerable women in allegheny county. 
+today, bethlehem haven is better equipped than ever by providing long-term solutions that combine “health and housing” to help end the cycle of homelessness. 
+learn more: https://bethlehemhaven.org
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>59</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
         <v>588</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>21</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>journey help end homelessness possible support community ! # didyouknow 2016 , bethlehem became part pittsburgh mercy family care™ , ensuring sustainability provider shelter , housing services vulnerable women allegheny county . today , bethlehem better equipped ever providing long-term solutions combine “ health housing ” help end cycle homelessness . learn : https : //bethlehemhaven.org # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>80</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>#Throwback to the Coldest Night of the Year event that took place on Saturday, Feb. 25.
-Thank you to everyone who joined us and helped make the event such a success!
-Missed the walk but still want to support the work of Bethlehem Haven? 
-Visit our donate page and let’s work together to end homelessness in our communities. 
-https://lnkd.in/g_mmNdUf
- #BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>#throwback to the coldest night of the year event that took place on saturday, feb. 25.
+thank you to everyone who joined us and helped make the event such a success!
+missed the walk but still want to support the work of bethlehem haven? 
+visit our donate page and let’s work together to end homelessness in our communities. 
+https://lnkd.in/g_mmnduf
+ #bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>121</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>10</v>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
       <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
         <v>1</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>442</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>20</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t># throwback coldest night year event took place saturday , feb. 25. thank everyone joined us helped make event success ! missed walk still want support work bethlehem ? visit donate page let ’ work together end homelessness communities . https : //lnkd.in/g_mmnduf # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>81</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thank you to everyone who came out to support the Coldest Night of the Year event on Saturday! 
-This event worked to raise awareness around the issue of homelessness in our communities. We want to thank KDKA’s Ron Smiley, our honorary host, and everyone who made this event a success. 
-We see you. Let’s build a strong foundation together.
-If you weren’t able to make it but would still like to donate to Bethlehem Haven, click the link: https://lnkd.in/g_mmNdUf
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #CNOYPgh #event #thankyou #success </t>
-        </is>
-      </c>
-      <c r="C82" t="n">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thank you to everyone who came out to support the coldest night of the year event on saturday! 
+this event worked to raise awareness around the issue of homelessness in our communities. we want to thank kdka’s ron smiley, our honorary host, and everyone who made this event a success. 
+we see you. let’s build a strong foundation together.
+if you weren’t able to make it but would still like to donate to bethlehem haven, click the link: https://lnkd.in/g_mmnduf
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #cnoypgh #event #thankyou #success </t>
+        </is>
+      </c>
+      <c r="D82" t="n">
         <v>85</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>7</v>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
       <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
         <v>2</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>589</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>26</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>11</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>thank everyone came support coldest night year event saturday ! event worked raise awareness around issue homelessness communities . want thank kdka ’ ron smiley , honorary host , everyone made event success . see . let ’ build strong foundation together . ’ able make would still like donate bethlehem , click link : https : //lnkd.in/g_mmnduf # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # cnoypgh # event # thankyou # success</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>0.9766</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>82</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Looking to do good in the world? We are hiring! 
-Pittsburgh Mercy - Bethlehem Haven is looking for a Development &amp; Communications Manager.
-This is a full-time position, with a great benefits package that starts on your first day. 
-Would you be a good fit or know someone who might? Please click the link to learn more:
-https://lnkd.in/eMRu_E9n
-#WeAreHiring #BethlehemHaven #CommunicationsManager #FullTime #EndHomelessness</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>looking to do good in the world? we are hiring! 
+pittsburgh mercy - bethlehem haven is looking for a development &amp; communications manager.
+this is a full-time position, with a great benefits package that starts on your first day. 
+would you be a good fit or know someone who might? please click the link to learn more:
+https://lnkd.in/emru_e9n
+#wearehiring #bethlehemhaven #communicationsmanager #fulltime #endhomelessness</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>68</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>1</v>
       </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
         <v>427</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>21</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>looking good world ? hiring ! pittsburgh mercy - bethlehem looking development &amp; communications manager . full-time position , great benefits package starts first day . would good fit know someone might ? please click link learn : https : //lnkd.in/emru_e9n # wearehiring # bethlehemhaven # communicationsmanager # fulltime # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>83</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#DidYouKnow We’re preparing to vacate our Fifth Avenue location next month so that renovations can get underway!  
-With so much in motion, we kindly ask for your grace, patience and support. Due to the move, we are temporarily pausing in-house volunteering opportunities. 
-In the coming weeks, we’ll be working closely with those we have the privilege to serve to prepare them for this transition, as well. 
-Your notes, donations, and kind wishes will help them navigate this move and get acclimated to our temporary location in Shadyside, where they’ll be residing for nine months while Bethlehem Haven’s Fifth Avenue space is refurbished. 
-We will share updates along the way on social media and in this newsletter. 
-Please follow us on Instagram @Bethlehem_Haven and on Facebook @BethlehemHaven. We invite you to keep in touch with us.
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C84" t="n">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">#didyouknow we’re preparing to vacate our fifth avenue location next month so that renovations can get underway!  
+with so much in motion, we kindly ask for your grace, patience and support. due to the move, we are temporarily pausing in-house volunteering opportunities. 
+in the coming weeks, we’ll be working closely with those we have the privilege to serve to prepare them for this transition, as well. 
+your notes, donations, and kind wishes will help them navigate this move and get acclimated to our temporary location in shadyside, where they’ll be residing for nine months while bethlehem haven’s fifth avenue space is refurbished. 
+we will share updates along the way on social media and in this newsletter. 
+please follow us on instagram @bethlehem_haven and on facebook @bethlehemhaven. we invite you to keep in touch with us.
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>75</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>3</v>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
       <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
         <v>1</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>931</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>28</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t># didyouknow ’ preparing vacate fifth avenue location next month renovations get underway ! much motion , kindly ask grace , patience support . due move , temporarily pausing in-house volunteering opportunities . coming weeks , ’ working closely privilege serve prepare transition , well . notes , donations , kind wishes help navigate move get acclimated temporary location shadyside , ’ residing nine months bethlehem ’ fifth avenue space refurbished . share updates along way social media newsletter . please follow us instagram @ bethlehem_haven facebook @ bethlehemhaven . invite keep touch us . # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>84</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t xml:space="preserve">COME WALK WITH US: Coldest Night of the Year
-Bethlehem Haven will hold a Coldest Night of the Year event to raise awareness and funds to support people experiencing homelessness. 
-WHEN: 4-7 p.m. Saturday, Feb. 25 
-WHERE: Stage AE on the North Shore. 
-You’re invited to register to walk with us, or you can sign up to create your own team of walkers to fundraise and participate in the event. There will be a 5km (or about 3 miles) or a 2km (or about 1.2 miles) walk route option. 
-*You MUST register ahead of time to participate.* 
-Not able to join us in person? People can still register to fundraise and walk offsite with friends and family. Is your company interested in sponsoring this event? 
-Please get in touch via email at info@bethlehemhaven.org
-Registration is free at https://lnkd.in/gvC9XX8Z
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #CNOYPgh </t>
-        </is>
-      </c>
-      <c r="C85" t="n">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">come walk with us: coldest night of the year
+bethlehem haven will hold a coldest night of the year event to raise awareness and funds to support people experiencing homelessness. 
+when: 4-7 p.m. saturday, feb. 25 
+where: stage ae on the north shore. 
+you’re invited to register to walk with us, or you can sign up to create your own team of walkers to fundraise and participate in the event. there will be a 5km (or about 3 miles) or a 2km (or about 1.2 miles) walk route option. 
+*you must register ahead of time to participate.* 
+not able to join us in person? people can still register to fundraise and walk offsite with friends and family. is your company interested in sponsoring this event? 
+please get in touch via email at info@bethlehemhaven.org
+registration is free at https://lnkd.in/gvc9xx8z
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #cnoypgh </t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>55</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>2</v>
       </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
         <v>907</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>39</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>come walk us : coldest night year bethlehem hold coldest night year event raise awareness funds support people experiencing homelessness . : 4-7 p.m. saturday , feb. 25 : stage ae north shore . ’ invited register walk us , sign create team walkers fundraise participate event . 5km ( 3 miles ) 2km ( 1.2 miles ) walk route option . * must register ahead time participate . * able join us person ? people still register fundraise walk offsite friends family . company interested sponsoring event ? please get touch via email info @ bethlehemhaven.org registration free https : //lnkd.in/gvc9xx8z # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # cnoypgh</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>0.9498</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>85</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Our Coldest Night of the Year event is only 10 days away! 
-Have you signed up for this winterrific family-friendly walk to raise money for local charities serving people experiencing hurt, hunger, and homelessness?
- Join us on February 25, outside Stage AE on the North Side at 4pm. Team up, fundraise, walk, and gather for good... because it’s cold out there.
-To learn more or sign up for a team: 
-https://lnkd.in/gvC9XX8Z
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #SafeAtHome #EndHomelessness #CNOYpgh </t>
-        </is>
-      </c>
-      <c r="C86" t="n">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">our coldest night of the year event is only 10 days away! 
+have you signed up for this winterrific family-friendly walk to raise money for local charities serving people experiencing hurt, hunger, and homelessness?
+ join us on february 25, outside stage ae on the north side at 4pm. team up, fundraise, walk, and gather for good... because it’s cold out there.
+to learn more or sign up for a team: 
+https://lnkd.in/gvc9xx8z
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #safeathome #endhomelessness #cnoypgh </t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>76</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>4</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>1</v>
       </c>
-      <c r="F86" t="n">
-        <v>0</v>
-      </c>
       <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
         <v>524</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>28</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>coldest night year event 10 days away ! signed winterrific family-friendly walk raise money local charities serving people experiencing hurt , hunger , homelessness ? join us february 25 , outside stage ae north side 4pm . team , fundraise , walk , gather good ... ’ cold . learn sign team : https : //lnkd.in/gvc9xx8z # bethlehemhaven # weseeyou # community # nonprofit # homeless # safeathome # endhomelessness # cnoypgh</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>0.4926</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
         <v>86</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Are you joining us for the Coldest Night of the Year event happening Feb. 25?
-We are meeting at Stage AE on the North Shore at 4pm and walking to raise awareness around homelessness and funds for Bethlehem Haven.
-Not able join us in person on CNOY Day? We hope you'll register to fundraise and walk offsite with friends and family.
-To register or donate: https://lnkd.in/gvC9XX8Z
-#BethlehemHaven #WeSeeYou #Community #Nonprofit #Homeless #CNOY #CNOYPgh #EndHomelessness </t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">are you joining us for the coldest night of the year event happening feb. 25?
+we are meeting at stage ae on the north shore at 4pm and walking to raise awareness around homelessness and funds for bethlehem haven.
+not able join us in person on cnoy day? we hope you'll register to fundraise and walk offsite with friends and family.
+to register or donate: https://lnkd.in/gvc9xx8z
+#bethlehemhaven #weseeyou #community #nonprofit #homeless #cnoy #cnoypgh #endhomelessness </t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>73</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>1</v>
       </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
       <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
         <v>2</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>474</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>20</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>joining us coldest night year event happening feb. 25 ? meeting stage ae north shore 4pm walking raise awareness around homelessness funds bethlehem . able join us person cnoy day ? hope 'll register fundraise walk offsite friends family . register donate : https : //lnkd.in/gvc9xx8z # bethlehemhaven # weseeyou # community # nonprofit # homeless # cnoy # cnoypgh # endhomelessness</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8205</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>Verb_Count</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Entities_Count</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -544,6 +549,9 @@
         <v>6</v>
       </c>
       <c r="N2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -594,6 +602,9 @@
       <c r="N3" t="n">
         <v>12</v>
       </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -642,6 +653,9 @@
       <c r="N4" t="n">
         <v>7</v>
       </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -690,6 +704,9 @@
       <c r="N5" t="n">
         <v>8</v>
       </c>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -737,6 +754,9 @@
       <c r="N6" t="n">
         <v>10</v>
       </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -784,6 +804,9 @@
       <c r="N7" t="n">
         <v>9</v>
       </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -831,6 +854,9 @@
       <c r="N8" t="n">
         <v>10</v>
       </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -878,6 +904,9 @@
       <c r="N9" t="n">
         <v>8</v>
       </c>
+      <c r="O9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -925,6 +954,9 @@
       <c r="N10" t="n">
         <v>10</v>
       </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -971,6 +1003,9 @@
       </c>
       <c r="N11" t="n">
         <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1022,6 +1057,9 @@
       </c>
       <c r="N12" t="n">
         <v>15</v>
+      </c>
+      <c r="O12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1075,6 +1113,9 @@
       <c r="N13" t="n">
         <v>25</v>
       </c>
+      <c r="O13" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1121,6 +1162,9 @@
       </c>
       <c r="N14" t="n">
         <v>4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1173,6 +1217,9 @@
       </c>
       <c r="N15" t="n">
         <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1228,6 +1275,9 @@
       <c r="N16" t="n">
         <v>30</v>
       </c>
+      <c r="O16" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1280,6 +1330,9 @@
       <c r="N17" t="n">
         <v>18</v>
       </c>
+      <c r="O17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1328,6 +1381,9 @@
       </c>
       <c r="N18" t="n">
         <v>8</v>
+      </c>
+      <c r="O18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1378,6 +1434,9 @@
       </c>
       <c r="N19" t="n">
         <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -1438,6 +1497,9 @@
       <c r="N20" t="n">
         <v>15</v>
       </c>
+      <c r="O20" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1493,6 +1555,9 @@
       <c r="N21" t="n">
         <v>27</v>
       </c>
+      <c r="O21" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1544,6 +1609,9 @@
       </c>
       <c r="N22" t="n">
         <v>27</v>
+      </c>
+      <c r="O22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -1598,6 +1666,9 @@
       </c>
       <c r="N23" t="n">
         <v>35</v>
+      </c>
+      <c r="O23" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1655,6 +1726,9 @@
       <c r="N24" t="n">
         <v>34</v>
       </c>
+      <c r="O24" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1705,6 +1779,9 @@
       </c>
       <c r="N25" t="n">
         <v>10</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1759,6 +1836,9 @@
       <c r="N26" t="n">
         <v>18</v>
       </c>
+      <c r="O26" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1812,6 +1892,9 @@
       <c r="N27" t="n">
         <v>10</v>
       </c>
+      <c r="O27" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1862,6 +1945,9 @@
       <c r="N28" t="n">
         <v>13</v>
       </c>
+      <c r="O28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1912,6 +1998,9 @@
       <c r="N29" t="n">
         <v>12</v>
       </c>
+      <c r="O29" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1960,6 +2049,9 @@
       </c>
       <c r="N30" t="n">
         <v>9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -2010,6 +2102,9 @@
       </c>
       <c r="N31" t="n">
         <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2063,6 +2158,9 @@
       <c r="N32" t="n">
         <v>15</v>
       </c>
+      <c r="O32" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2112,6 +2210,9 @@
       </c>
       <c r="N33" t="n">
         <v>16</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2166,6 +2267,9 @@
       <c r="N34" t="n">
         <v>26</v>
       </c>
+      <c r="O34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2215,6 +2319,9 @@
       </c>
       <c r="N35" t="n">
         <v>13</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2269,6 +2376,9 @@
       <c r="N36" t="n">
         <v>11</v>
       </c>
+      <c r="O36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2317,6 +2427,9 @@
       </c>
       <c r="N37" t="n">
         <v>6</v>
+      </c>
+      <c r="O37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2367,6 +2480,9 @@
       </c>
       <c r="N38" t="n">
         <v>17</v>
+      </c>
+      <c r="O38" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -2425,6 +2541,9 @@
       <c r="N39" t="n">
         <v>15</v>
       </c>
+      <c r="O39" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2476,6 +2595,9 @@
       </c>
       <c r="N40" t="n">
         <v>18</v>
+      </c>
+      <c r="O40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2532,6 +2654,9 @@
       <c r="N41" t="n">
         <v>14</v>
       </c>
+      <c r="O41" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2583,6 +2708,9 @@
       </c>
       <c r="N42" t="n">
         <v>22</v>
+      </c>
+      <c r="O42" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2639,6 +2767,9 @@
       <c r="N43" t="n">
         <v>13</v>
       </c>
+      <c r="O43" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2693,6 +2824,9 @@
       <c r="N44" t="n">
         <v>27</v>
       </c>
+      <c r="O44" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2746,6 +2880,9 @@
       <c r="N45" t="n">
         <v>23</v>
       </c>
+      <c r="O45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2792,6 +2929,9 @@
       </c>
       <c r="N46" t="n">
         <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2845,6 +2985,9 @@
       <c r="N47" t="n">
         <v>20</v>
       </c>
+      <c r="O47" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2896,6 +3039,9 @@
       <c r="N48" t="n">
         <v>14</v>
       </c>
+      <c r="O48" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2945,6 +3091,9 @@
       </c>
       <c r="N49" t="n">
         <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -3000,6 +3149,9 @@
       <c r="N50" t="n">
         <v>22</v>
       </c>
+      <c r="O50" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3050,6 +3202,9 @@
       </c>
       <c r="N51" t="n">
         <v>19</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -3109,6 +3264,9 @@
       <c r="N52" t="n">
         <v>54</v>
       </c>
+      <c r="O52" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3161,6 +3319,9 @@
       <c r="N53" t="n">
         <v>9</v>
       </c>
+      <c r="O53" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3211,6 +3372,9 @@
       </c>
       <c r="N54" t="n">
         <v>17</v>
+      </c>
+      <c r="O54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -3266,6 +3430,9 @@
       <c r="N55" t="n">
         <v>23</v>
       </c>
+      <c r="O55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3310,6 +3477,9 @@
         <v>2</v>
       </c>
       <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3363,6 +3533,9 @@
       </c>
       <c r="N57" t="n">
         <v>19</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -3417,6 +3590,9 @@
       </c>
       <c r="N58" t="n">
         <v>20</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3478,6 +3654,9 @@
       <c r="N59" t="n">
         <v>18</v>
       </c>
+      <c r="O59" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3530,6 +3709,9 @@
       <c r="N60" t="n">
         <v>12</v>
       </c>
+      <c r="O60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3579,6 +3761,9 @@
       </c>
       <c r="N61" t="n">
         <v>8</v>
+      </c>
+      <c r="O61" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3631,6 +3816,9 @@
       <c r="N62" t="n">
         <v>13</v>
       </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3679,6 +3867,9 @@
       </c>
       <c r="N63" t="n">
         <v>6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -3731,6 +3922,9 @@
       <c r="N64" t="n">
         <v>12</v>
       </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3779,6 +3973,9 @@
       </c>
       <c r="N65" t="n">
         <v>10</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3830,6 +4027,9 @@
       <c r="N66" t="n">
         <v>10</v>
       </c>
+      <c r="O66" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3878,6 +4078,9 @@
       </c>
       <c r="N67" t="n">
         <v>11</v>
+      </c>
+      <c r="O67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3930,6 +4133,9 @@
       <c r="N68" t="n">
         <v>14</v>
       </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3978,6 +4184,9 @@
       </c>
       <c r="N69" t="n">
         <v>8</v>
+      </c>
+      <c r="O69" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="70">
@@ -4032,6 +4241,9 @@
       <c r="N70" t="n">
         <v>18</v>
       </c>
+      <c r="O70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4083,6 +4295,9 @@
       <c r="N71" t="n">
         <v>13</v>
       </c>
+      <c r="O71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4134,6 +4349,9 @@
       <c r="N72" t="n">
         <v>12</v>
       </c>
+      <c r="O72" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4184,6 +4402,9 @@
       <c r="N73" t="n">
         <v>6</v>
       </c>
+      <c r="O73" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4231,6 +4452,9 @@
       </c>
       <c r="N74" t="n">
         <v>7</v>
+      </c>
+      <c r="O74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -4280,6 +4504,9 @@
       </c>
       <c r="N75" t="n">
         <v>14</v>
+      </c>
+      <c r="O75" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -4331,6 +4558,9 @@
       <c r="N76" t="n">
         <v>8</v>
       </c>
+      <c r="O76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4381,6 +4611,9 @@
       <c r="N77" t="n">
         <v>13</v>
       </c>
+      <c r="O77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4430,6 +4663,9 @@
       </c>
       <c r="N78" t="n">
         <v>9</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -4483,6 +4719,9 @@
       <c r="N79" t="n">
         <v>11</v>
       </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4532,6 +4771,9 @@
       </c>
       <c r="N80" t="n">
         <v>9</v>
+      </c>
+      <c r="O80" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -4584,6 +4826,9 @@
       <c r="N81" t="n">
         <v>12</v>
       </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4633,6 +4878,9 @@
       </c>
       <c r="N82" t="n">
         <v>15</v>
+      </c>
+      <c r="O82" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="83">
@@ -4684,6 +4932,9 @@
       </c>
       <c r="N83" t="n">
         <v>9</v>
+      </c>
+      <c r="O83" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4736,6 +4987,9 @@
       </c>
       <c r="N84" t="n">
         <v>20</v>
+      </c>
+      <c r="O84" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -4792,6 +5046,9 @@
       <c r="N85" t="n">
         <v>21</v>
       </c>
+      <c r="O85" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4843,6 +5100,9 @@
       <c r="N86" t="n">
         <v>11</v>
       </c>
+      <c r="O86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4893,6 +5153,9 @@
       <c r="N87" t="n">
         <v>12</v>
       </c>
+      <c r="O87" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
+++ b/Data Cleaning/Cleaned Output Files/Cleaned LinkedIn Data.xlsx
@@ -531,10 +531,10 @@
         <v>332</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -546,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>0.01204819277108434</v>
       </c>
     </row>
     <row r="3">
@@ -582,7 +582,7 @@
         <v>461</v>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>0.03904555314533623</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>0.008676789587852495</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>0.02603036876355748</v>
       </c>
       <c r="O3" t="n">
-        <v>6</v>
+        <v>0.01301518438177874</v>
       </c>
     </row>
     <row r="4">
@@ -633,10 +633,10 @@
         <v>371</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>0.04851752021563342</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.002695417789757413</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>0.008086253369272238</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>0.01078167115902965</v>
       </c>
     </row>
     <row r="5">
@@ -684,7 +684,7 @@
         <v>314</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>0.01592356687898089</v>
       </c>
     </row>
     <row r="6">
@@ -734,7 +734,7 @@
         <v>339</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0.005899705014749262</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>0.02949852507374631</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="7">
@@ -784,7 +784,7 @@
         <v>381</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>9</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>0.02362204724409449</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>0.01574803149606299</v>
       </c>
     </row>
     <row r="8">
@@ -834,7 +834,7 @@
         <v>311</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>0.05144694533762058</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
         <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0.009646302250803859</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>0.03215434083601286</v>
       </c>
       <c r="O8" t="n">
-        <v>6</v>
+        <v>0.01929260450160772</v>
       </c>
     </row>
     <row r="9">
@@ -884,7 +884,7 @@
         <v>420</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>0.04523809523809524</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>6</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="O9" t="n">
-        <v>5</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="10">
@@ -934,7 +934,7 @@
         <v>381</v>
       </c>
       <c r="H10" t="n">
-        <v>16</v>
+        <v>0.04199475065616798</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>8</v>
+        <v>0.02099737532808399</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>0.02624671916010499</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>0.01049868766404199</v>
       </c>
     </row>
     <row r="11">
@@ -984,7 +984,7 @@
         <v>275</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -999,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>0.01090909090909091</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>0.02181818181818182</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>0.01090909090909091</v>
       </c>
     </row>
     <row r="12">
@@ -1038,10 +1038,10 @@
         <v>720</v>
       </c>
       <c r="H12" t="n">
-        <v>24</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0.001388888888888889</v>
       </c>
       <c r="J12" t="n">
         <v>6</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>7</v>
+        <v>0.009722222222222222</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>0.01388888888888889</v>
       </c>
     </row>
     <row r="13">
@@ -1093,10 +1093,10 @@
         <v>1058</v>
       </c>
       <c r="H13" t="n">
-        <v>32</v>
+        <v>0.03024574669187146</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0.000945179584120983</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>0.00945179584120983</v>
       </c>
       <c r="N13" t="n">
-        <v>25</v>
+        <v>0.02362948960302457</v>
       </c>
       <c r="O13" t="n">
-        <v>19</v>
+        <v>0.01795841209829868</v>
       </c>
     </row>
     <row r="14">
@@ -1143,10 +1143,10 @@
         <v>150</v>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="15">
@@ -1198,10 +1198,10 @@
         <v>541</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>0.03696857670979668</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0.001848428835489834</v>
       </c>
       <c r="J15" t="n">
         <v>6</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>0.009242144177449169</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>0.01478743068391867</v>
       </c>
       <c r="O15" t="n">
-        <v>10</v>
+        <v>0.01848428835489834</v>
       </c>
     </row>
     <row r="16">
@@ -1255,10 +1255,10 @@
         <v>1476</v>
       </c>
       <c r="H16" t="n">
-        <v>37</v>
+        <v>0.02506775067750678</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0.0006775067750677507</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
@@ -1270,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>0.01355013550135501</v>
       </c>
       <c r="N16" t="n">
-        <v>30</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>0.01151761517615176</v>
       </c>
     </row>
     <row r="17">
@@ -1310,10 +1310,10 @@
         <v>934</v>
       </c>
       <c r="H17" t="n">
-        <v>32</v>
+        <v>0.03426124197002142</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0.002141327623126338</v>
       </c>
       <c r="J17" t="n">
         <v>9</v>
@@ -1325,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>0.01498929336188437</v>
       </c>
       <c r="N17" t="n">
-        <v>18</v>
+        <v>0.01927194860813704</v>
       </c>
       <c r="O17" t="n">
-        <v>16</v>
+        <v>0.01713062098501071</v>
       </c>
     </row>
     <row r="18">
@@ -1362,7 +1362,7 @@
         <v>359</v>
       </c>
       <c r="H18" t="n">
-        <v>19</v>
+        <v>0.05292479108635097</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1377,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>0.008356545961002786</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>0.02228412256267409</v>
       </c>
       <c r="O18" t="n">
-        <v>4</v>
+        <v>0.01114206128133705</v>
       </c>
     </row>
     <row r="19">
@@ -1415,10 +1415,10 @@
         <v>528</v>
       </c>
       <c r="H19" t="n">
-        <v>19</v>
+        <v>0.03598484848484849</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="O19" t="n">
-        <v>13</v>
+        <v>0.02462121212121212</v>
       </c>
     </row>
     <row r="20">
@@ -1477,7 +1477,7 @@
         <v>1071</v>
       </c>
       <c r="H20" t="n">
-        <v>28</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1492,13 +1492,13 @@
         <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>13</v>
+        <v>0.01213818860877684</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>0.01400560224089636</v>
       </c>
       <c r="O20" t="n">
-        <v>29</v>
+        <v>0.02707749766573296</v>
       </c>
     </row>
     <row r="21">
@@ -1535,7 +1535,7 @@
         <v>1604</v>
       </c>
       <c r="H21" t="n">
-        <v>39</v>
+        <v>0.0243142144638404</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>18</v>
+        <v>0.01122194513715711</v>
       </c>
       <c r="N21" t="n">
-        <v>27</v>
+        <v>0.01683291770573566</v>
       </c>
       <c r="O21" t="n">
-        <v>21</v>
+        <v>0.01309226932668329</v>
       </c>
     </row>
     <row r="22">
@@ -1590,7 +1590,7 @@
         <v>999</v>
       </c>
       <c r="H22" t="n">
-        <v>31</v>
+        <v>0.03103103103103103</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>0.005005005005005005</v>
       </c>
       <c r="N22" t="n">
-        <v>27</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="O22" t="n">
-        <v>18</v>
+        <v>0.01801801801801802</v>
       </c>
     </row>
     <row r="23">
@@ -1647,7 +1647,7 @@
         <v>1567</v>
       </c>
       <c r="H23" t="n">
-        <v>52</v>
+        <v>0.03318442884492661</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>17</v>
+        <v>0.01084875558391831</v>
       </c>
       <c r="N23" t="n">
-        <v>35</v>
+        <v>0.0223356732610083</v>
       </c>
       <c r="O23" t="n">
-        <v>21</v>
+        <v>0.01340140395660498</v>
       </c>
     </row>
     <row r="24">
@@ -1706,7 +1706,7 @@
         <v>1385</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>0.02671480144404332</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1721,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>10</v>
+        <v>0.007220216606498195</v>
       </c>
       <c r="N24" t="n">
-        <v>34</v>
+        <v>0.02454873646209386</v>
       </c>
       <c r="O24" t="n">
-        <v>21</v>
+        <v>0.01516245487364621</v>
       </c>
     </row>
     <row r="25">
@@ -1760,10 +1760,10 @@
         <v>535</v>
       </c>
       <c r="H25" t="n">
-        <v>21</v>
+        <v>0.03925233644859813</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0.001869158878504673</v>
       </c>
       <c r="J25" t="n">
         <v>6</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>0.005607476635514018</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>0.01121495327102804</v>
       </c>
     </row>
     <row r="26">
@@ -1816,7 +1816,7 @@
         <v>978</v>
       </c>
       <c r="H26" t="n">
-        <v>33</v>
+        <v>0.03374233128834356</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1831,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>0.005112474437627812</v>
       </c>
       <c r="N26" t="n">
-        <v>18</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="O26" t="n">
-        <v>10</v>
+        <v>0.01022494887525562</v>
       </c>
     </row>
     <row r="27">
@@ -1872,10 +1872,10 @@
         <v>789</v>
       </c>
       <c r="H27" t="n">
-        <v>34</v>
+        <v>0.04309252217997465</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0.001267427122940431</v>
       </c>
       <c r="J27" t="n">
         <v>9</v>
@@ -1887,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>7</v>
+        <v>0.008871989860583017</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>0.01267427122940431</v>
       </c>
       <c r="O27" t="n">
-        <v>14</v>
+        <v>0.01774397972116603</v>
       </c>
     </row>
     <row r="28">
@@ -1925,10 +1925,10 @@
         <v>478</v>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>0.04184100418410042</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0.002092050209205021</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
@@ -1940,13 +1940,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>0.008368200836820083</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>0.02719665271966527</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>0.01255230125523013</v>
       </c>
     </row>
     <row r="29">
@@ -1978,10 +1978,10 @@
         <v>513</v>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>0.03118908382066277</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0.001949317738791423</v>
       </c>
       <c r="J29" t="n">
         <v>7</v>
@@ -1993,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="O29" t="n">
-        <v>6</v>
+        <v>0.01169590643274854</v>
       </c>
     </row>
     <row r="30">
@@ -2030,10 +2030,10 @@
         <v>488</v>
       </c>
       <c r="H30" t="n">
-        <v>26</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="J30" t="n">
         <v>6</v>
@@ -2045,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>0.006147540983606557</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>0.01844262295081967</v>
       </c>
       <c r="O30" t="n">
-        <v>11</v>
+        <v>0.02254098360655738</v>
       </c>
     </row>
     <row r="31">
@@ -2083,7 +2083,7 @@
         <v>370</v>
       </c>
       <c r="H31" t="n">
-        <v>18</v>
+        <v>0.04864864864864865</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>0.02432432432432433</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>0.008108108108108109</v>
       </c>
     </row>
     <row r="32">
@@ -2138,10 +2138,10 @@
         <v>664</v>
       </c>
       <c r="H32" t="n">
-        <v>22</v>
+        <v>0.03313253012048193</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="J32" t="n">
         <v>9</v>
@@ -2153,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>0.003012048192771084</v>
       </c>
       <c r="N32" t="n">
-        <v>15</v>
+        <v>0.02259036144578313</v>
       </c>
       <c r="O32" t="n">
-        <v>13</v>
+        <v>0.01957831325301205</v>
       </c>
     </row>
     <row r="33">
@@ -2191,10 +2191,10 @@
         <v>454</v>
       </c>
       <c r="H33" t="n">
-        <v>15</v>
+        <v>0.03303964757709251</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="J33" t="n">
         <v>6</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="N33" t="n">
-        <v>16</v>
+        <v>0.03524229074889868</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>0.006607929515418502</v>
       </c>
     </row>
     <row r="34">
@@ -2247,10 +2247,10 @@
         <v>1219</v>
       </c>
       <c r="H34" t="n">
-        <v>35</v>
+        <v>0.02871205906480722</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0.0008203445447087777</v>
       </c>
       <c r="J34" t="n">
         <v>9</v>
@@ -2262,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>11</v>
+        <v>0.009023789991796555</v>
       </c>
       <c r="N34" t="n">
-        <v>26</v>
+        <v>0.02132895816242822</v>
       </c>
       <c r="O34" t="n">
-        <v>9</v>
+        <v>0.007383100902378999</v>
       </c>
     </row>
     <row r="35">
@@ -2300,7 +2300,7 @@
         <v>455</v>
       </c>
       <c r="H35" t="n">
-        <v>22</v>
+        <v>0.04835164835164835</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>7</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="O35" t="n">
-        <v>2</v>
+        <v>0.004395604395604396</v>
       </c>
     </row>
     <row r="36">
@@ -2356,7 +2356,7 @@
         <v>555</v>
       </c>
       <c r="H36" t="n">
-        <v>23</v>
+        <v>0.04144144144144144</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>6</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>0.01981981981981982</v>
       </c>
       <c r="O36" t="n">
-        <v>6</v>
+        <v>0.01081081081081081</v>
       </c>
     </row>
     <row r="37">
@@ -2408,10 +2408,10 @@
         <v>404</v>
       </c>
       <c r="H37" t="n">
-        <v>17</v>
+        <v>0.04207920792079208</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="J37" t="n">
         <v>7</v>
@@ -2423,13 +2423,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="O37" t="n">
-        <v>7</v>
+        <v>0.01732673267326733</v>
       </c>
     </row>
     <row r="38">
@@ -2461,10 +2461,10 @@
         <v>594</v>
       </c>
       <c r="H38" t="n">
-        <v>30</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>0.006734006734006734</v>
       </c>
       <c r="J38" t="n">
         <v>9</v>
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>0.008417508417508417</v>
       </c>
       <c r="N38" t="n">
-        <v>17</v>
+        <v>0.02861952861952862</v>
       </c>
       <c r="O38" t="n">
-        <v>11</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="39">
@@ -2521,10 +2521,10 @@
         <v>870</v>
       </c>
       <c r="H39" t="n">
-        <v>34</v>
+        <v>0.03908045977011494</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0.002298850574712644</v>
       </c>
       <c r="J39" t="n">
         <v>11</v>
@@ -2536,13 +2536,13 @@
         <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>0.009195402298850575</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="O39" t="n">
-        <v>18</v>
+        <v>0.02068965517241379</v>
       </c>
     </row>
     <row r="40">
@@ -2576,7 +2576,7 @@
         <v>776</v>
       </c>
       <c r="H40" t="n">
-        <v>26</v>
+        <v>0.03350515463917526</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -2591,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>7</v>
+        <v>0.00902061855670103</v>
       </c>
       <c r="N40" t="n">
-        <v>18</v>
+        <v>0.02319587628865979</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>0.005154639175257732</v>
       </c>
     </row>
     <row r="41">
@@ -2634,10 +2634,10 @@
         <v>907</v>
       </c>
       <c r="H41" t="n">
-        <v>39</v>
+        <v>0.04299889746416759</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0.001102535832414553</v>
       </c>
       <c r="J41" t="n">
         <v>10</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>6</v>
+        <v>0.006615214994487321</v>
       </c>
       <c r="N41" t="n">
-        <v>14</v>
+        <v>0.01543550165380375</v>
       </c>
       <c r="O41" t="n">
-        <v>22</v>
+        <v>0.02425578831312018</v>
       </c>
     </row>
     <row r="42">
@@ -2689,10 +2689,10 @@
         <v>935</v>
       </c>
       <c r="H42" t="n">
-        <v>29</v>
+        <v>0.03101604278074866</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>0.00213903743315508</v>
       </c>
       <c r="J42" t="n">
         <v>8</v>
@@ -2704,13 +2704,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>11</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="N42" t="n">
-        <v>22</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="O42" t="n">
-        <v>11</v>
+        <v>0.01176470588235294</v>
       </c>
     </row>
     <row r="43">
@@ -2747,7 +2747,7 @@
         <v>873</v>
       </c>
       <c r="H43" t="n">
-        <v>35</v>
+        <v>0.04009163802978236</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -2762,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>0.004581901489117984</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>0.01489117983963345</v>
       </c>
       <c r="O43" t="n">
-        <v>13</v>
+        <v>0.01489117983963345</v>
       </c>
     </row>
     <row r="44">
@@ -2804,10 +2804,10 @@
         <v>1131</v>
       </c>
       <c r="H44" t="n">
-        <v>40</v>
+        <v>0.03536693191865606</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0.003536693191865605</v>
       </c>
       <c r="J44" t="n">
         <v>6</v>
@@ -2819,13 +2819,13 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>8</v>
+        <v>0.007073386383731211</v>
       </c>
       <c r="N44" t="n">
-        <v>27</v>
+        <v>0.02387267904509284</v>
       </c>
       <c r="O44" t="n">
-        <v>20</v>
+        <v>0.01768346595932803</v>
       </c>
     </row>
     <row r="45">
@@ -2860,10 +2860,10 @@
         <v>1054</v>
       </c>
       <c r="H45" t="n">
-        <v>33</v>
+        <v>0.03130929791271347</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0.0009487666034155598</v>
       </c>
       <c r="J45" t="n">
         <v>9</v>
@@ -2875,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>6</v>
+        <v>0.005692599620493359</v>
       </c>
       <c r="N45" t="n">
-        <v>23</v>
+        <v>0.02182163187855787</v>
       </c>
       <c r="O45" t="n">
-        <v>9</v>
+        <v>0.008538899430740038</v>
       </c>
     </row>
     <row r="46">
@@ -2910,10 +2910,10 @@
         <v>155</v>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>0.04516129032258064</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="O46" t="n">
-        <v>5</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="47">
@@ -2965,10 +2965,10 @@
         <v>988</v>
       </c>
       <c r="H47" t="n">
-        <v>35</v>
+        <v>0.0354251012145749</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0.001012145748987854</v>
       </c>
       <c r="J47" t="n">
         <v>10</v>
@@ -2980,13 +2980,13 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>8</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="N47" t="n">
-        <v>20</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="O47" t="n">
-        <v>16</v>
+        <v>0.01619433198380567</v>
       </c>
     </row>
     <row r="48">
@@ -3019,10 +3019,10 @@
         <v>859</v>
       </c>
       <c r="H48" t="n">
-        <v>29</v>
+        <v>0.03376018626309663</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0.001164144353899884</v>
       </c>
       <c r="J48" t="n">
         <v>7</v>
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>8</v>
+        <v>0.009313154831199068</v>
       </c>
       <c r="N48" t="n">
-        <v>14</v>
+        <v>0.01629802095459837</v>
       </c>
       <c r="O48" t="n">
-        <v>13</v>
+        <v>0.01513387660069849</v>
       </c>
     </row>
     <row r="49">
@@ -3072,10 +3072,10 @@
         <v>557</v>
       </c>
       <c r="H49" t="n">
-        <v>23</v>
+        <v>0.04129263913824058</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0.001795332136445242</v>
       </c>
       <c r="J49" t="n">
         <v>10</v>
@@ -3087,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>0.008976660682226212</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>0.01795332136445242</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>0.005385996409335727</v>
       </c>
     </row>
     <row r="50">
@@ -3129,7 +3129,7 @@
         <v>1132</v>
       </c>
       <c r="H50" t="n">
-        <v>38</v>
+        <v>0.03356890459363958</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -3144,13 +3144,13 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>18</v>
+        <v>0.01590106007067138</v>
       </c>
       <c r="N50" t="n">
-        <v>22</v>
+        <v>0.01943462897526502</v>
       </c>
       <c r="O50" t="n">
-        <v>8</v>
+        <v>0.007067137809187279</v>
       </c>
     </row>
     <row r="51">
@@ -3183,7 +3183,7 @@
         <v>724</v>
       </c>
       <c r="H51" t="n">
-        <v>22</v>
+        <v>0.03038674033149171</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>0.006906077348066298</v>
       </c>
       <c r="N51" t="n">
-        <v>19</v>
+        <v>0.02624309392265193</v>
       </c>
       <c r="O51" t="n">
-        <v>7</v>
+        <v>0.009668508287292817</v>
       </c>
     </row>
     <row r="52">
@@ -3244,10 +3244,10 @@
         <v>1932</v>
       </c>
       <c r="H52" t="n">
-        <v>43</v>
+        <v>0.02225672877846791</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0.0005175983436853002</v>
       </c>
       <c r="J52" t="n">
         <v>7</v>
@@ -3259,13 +3259,13 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>16</v>
+        <v>0.008281573498964804</v>
       </c>
       <c r="N52" t="n">
-        <v>54</v>
+        <v>0.02795031055900621</v>
       </c>
       <c r="O52" t="n">
-        <v>24</v>
+        <v>0.0124223602484472</v>
       </c>
     </row>
     <row r="53">
@@ -3299,7 +3299,7 @@
         <v>758</v>
       </c>
       <c r="H53" t="n">
-        <v>26</v>
+        <v>0.03430079155672823</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>0.00395778364116095</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>0.01187335092348285</v>
       </c>
       <c r="O53" t="n">
-        <v>17</v>
+        <v>0.02242744063324538</v>
       </c>
     </row>
     <row r="54">
@@ -3353,7 +3353,7 @@
         <v>896</v>
       </c>
       <c r="H54" t="n">
-        <v>21</v>
+        <v>0.0234375</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -3368,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>9</v>
+        <v>0.01004464285714286</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>0.01897321428571428</v>
       </c>
       <c r="O54" t="n">
-        <v>9</v>
+        <v>0.01004464285714286</v>
       </c>
     </row>
     <row r="55">
@@ -3410,10 +3410,10 @@
         <v>1230</v>
       </c>
       <c r="H55" t="n">
-        <v>35</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0.0008130081300813008</v>
       </c>
       <c r="J55" t="n">
         <v>7</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>12</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N55" t="n">
-        <v>23</v>
+        <v>0.01869918699186992</v>
       </c>
       <c r="O55" t="n">
-        <v>14</v>
+        <v>0.01138211382113821</v>
       </c>
     </row>
     <row r="56">
@@ -3459,10 +3459,10 @@
         <v>48</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="57">
@@ -3514,7 +3514,7 @@
         <v>710</v>
       </c>
       <c r="H57" t="n">
-        <v>27</v>
+        <v>0.0380281690140845</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -3529,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>6</v>
+        <v>0.008450704225352112</v>
       </c>
       <c r="N57" t="n">
-        <v>19</v>
+        <v>0.02676056338028169</v>
       </c>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>0.004225352112676056</v>
       </c>
     </row>
     <row r="58">
@@ -3571,7 +3571,7 @@
         <v>884</v>
       </c>
       <c r="H58" t="n">
-        <v>24</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -3586,13 +3586,13 @@
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>7</v>
+        <v>0.007918552036199095</v>
       </c>
       <c r="N58" t="n">
-        <v>20</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="O58" t="n">
-        <v>3</v>
+        <v>0.003393665158371041</v>
       </c>
     </row>
     <row r="59">
@@ -3634,7 +3634,7 @@
         <v>1207</v>
       </c>
       <c r="H59" t="n">
-        <v>51</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3649,13 +3649,13 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>11</v>
+        <v>0.009113504556752278</v>
       </c>
       <c r="N59" t="n">
-        <v>18</v>
+        <v>0.01491300745650373</v>
       </c>
       <c r="O59" t="n">
-        <v>16</v>
+        <v>0.01325600662800331</v>
       </c>
     </row>
     <row r="60">
@@ -3689,7 +3689,7 @@
         <v>673</v>
       </c>
       <c r="H60" t="n">
-        <v>21</v>
+        <v>0.0312035661218425</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -3704,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>0.007429420505200594</v>
       </c>
       <c r="N60" t="n">
-        <v>12</v>
+        <v>0.01783060921248143</v>
       </c>
       <c r="O60" t="n">
-        <v>6</v>
+        <v>0.008915304606240713</v>
       </c>
     </row>
     <row r="61">
@@ -3742,7 +3742,7 @@
         <v>497</v>
       </c>
       <c r="H61" t="n">
-        <v>11</v>
+        <v>0.0221327967806841</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -3757,13 +3757,13 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>9</v>
+        <v>0.01810865191146881</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>0.01609657947686117</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>0.008048289738430584</v>
       </c>
     </row>
     <row r="62">
@@ -3796,7 +3796,7 @@
         <v>556</v>
       </c>
       <c r="H62" t="n">
-        <v>20</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3811,13 +3811,13 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="N62" t="n">
-        <v>13</v>
+        <v>0.02338129496402878</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0.003597122302158274</v>
       </c>
     </row>
     <row r="63">
@@ -3848,7 +3848,7 @@
         <v>351</v>
       </c>
       <c r="H63" t="n">
-        <v>15</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3863,13 +3863,13 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>0.005698005698005698</v>
       </c>
       <c r="N63" t="n">
-        <v>6</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="O63" t="n">
-        <v>5</v>
+        <v>0.01424501424501425</v>
       </c>
     </row>
     <row r="64">
@@ -3902,7 +3902,7 @@
         <v>690</v>
       </c>
       <c r="H64" t="n">
-        <v>26</v>
+        <v>0.03768115942028986</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -3917,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>9</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N64" t="n">
-        <v>12</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0.001449275362318841</v>
       </c>
     </row>
     <row r="65">
@@ -3954,7 +3954,7 @@
         <v>499</v>
       </c>
       <c r="H65" t="n">
-        <v>19</v>
+        <v>0.03807615230460922</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3969,13 +3969,13 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>3</v>
+        <v>0.006012024048096192</v>
       </c>
       <c r="N65" t="n">
-        <v>10</v>
+        <v>0.02004008016032064</v>
       </c>
       <c r="O65" t="n">
-        <v>7</v>
+        <v>0.01402805611222445</v>
       </c>
     </row>
     <row r="66">
@@ -4007,10 +4007,10 @@
         <v>481</v>
       </c>
       <c r="H66" t="n">
-        <v>16</v>
+        <v>0.03326403326403327</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0.002079002079002079</v>
       </c>
       <c r="J66" t="n">
         <v>7</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>0.01247401247401247</v>
       </c>
       <c r="N66" t="n">
-        <v>10</v>
+        <v>0.02079002079002079</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>0.006237006237006237</v>
       </c>
     </row>
     <row r="67">
@@ -4059,10 +4059,10 @@
         <v>524</v>
       </c>
       <c r="H67" t="n">
-        <v>17</v>
+        <v>0.03244274809160305</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0.003816793893129771</v>
       </c>
       <c r="J67" t="n">
         <v>8</v>
@@ -4074,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>0.009541984732824428</v>
       </c>
       <c r="N67" t="n">
-        <v>11</v>
+        <v>0.02099236641221374</v>
       </c>
       <c r="O67" t="n">
-        <v>4</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="68">
@@ -4113,7 +4113,7 @@
         <v>959</v>
       </c>
       <c r="H68" t="n">
-        <v>32</v>
+        <v>0.03336809176225235</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -4128,13 +4128,13 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>22</v>
+        <v>0.02294056308654849</v>
       </c>
       <c r="N68" t="n">
-        <v>14</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>0.003128258602711158</v>
       </c>
     </row>
     <row r="69">
@@ -4165,7 +4165,7 @@
         <v>627</v>
       </c>
       <c r="H69" t="n">
-        <v>30</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>8</v>
+        <v>0.0127591706539075</v>
       </c>
       <c r="O69" t="n">
-        <v>22</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="70">
@@ -4221,10 +4221,10 @@
         <v>875</v>
       </c>
       <c r="H70" t="n">
-        <v>27</v>
+        <v>0.03085714285714286</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0.001142857142857143</v>
       </c>
       <c r="J70" t="n">
         <v>10</v>
@@ -4236,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>6</v>
+        <v>0.006857142857142857</v>
       </c>
       <c r="N70" t="n">
-        <v>18</v>
+        <v>0.02057142857142857</v>
       </c>
       <c r="O70" t="n">
-        <v>12</v>
+        <v>0.01371428571428571</v>
       </c>
     </row>
     <row r="71">
@@ -4275,10 +4275,10 @@
         <v>689</v>
       </c>
       <c r="H71" t="n">
-        <v>23</v>
+        <v>0.03338171262699564</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0.001451378809869376</v>
       </c>
       <c r="J71" t="n">
         <v>8</v>
@@ -4290,13 +4290,13 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>11</v>
+        <v>0.01596516690856313</v>
       </c>
       <c r="N71" t="n">
-        <v>13</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="O71" t="n">
-        <v>4</v>
+        <v>0.005805515239477504</v>
       </c>
     </row>
     <row r="72">
@@ -4329,7 +4329,7 @@
         <v>578</v>
       </c>
       <c r="H72" t="n">
-        <v>21</v>
+        <v>0.03633217993079585</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -4344,13 +4344,13 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>10</v>
+        <v>0.01730103806228374</v>
       </c>
       <c r="N72" t="n">
-        <v>12</v>
+        <v>0.02076124567474048</v>
       </c>
       <c r="O72" t="n">
-        <v>7</v>
+        <v>0.01211072664359862</v>
       </c>
     </row>
     <row r="73">
@@ -4382,10 +4382,10 @@
         <v>493</v>
       </c>
       <c r="H73" t="n">
-        <v>19</v>
+        <v>0.0385395537525355</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0.002028397565922921</v>
       </c>
       <c r="J73" t="n">
         <v>7</v>
@@ -4397,13 +4397,13 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
+        <v>0.008113590263691683</v>
       </c>
       <c r="N73" t="n">
-        <v>6</v>
+        <v>0.01217038539553753</v>
       </c>
       <c r="O73" t="n">
-        <v>8</v>
+        <v>0.01622718052738337</v>
       </c>
     </row>
     <row r="74">
@@ -4433,7 +4433,7 @@
         <v>442</v>
       </c>
       <c r="H74" t="n">
-        <v>15</v>
+        <v>0.0339366515837104</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>3</v>
+        <v>0.006787330316742082</v>
       </c>
       <c r="N74" t="n">
-        <v>7</v>
+        <v>0.01583710407239819</v>
       </c>
       <c r="O74" t="n">
-        <v>3</v>
+        <v>0.006787330316742082</v>
       </c>
     </row>
     <row r="75">
@@ -4485,7 +4485,7 @@
         <v>734</v>
       </c>
       <c r="H75" t="n">
-        <v>23</v>
+        <v>0.03133514986376022</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -4500,13 +4500,13 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>8</v>
+        <v>0.0108991825613079</v>
       </c>
       <c r="N75" t="n">
-        <v>14</v>
+        <v>0.01907356948228883</v>
       </c>
       <c r="O75" t="n">
-        <v>10</v>
+        <v>0.01362397820163488</v>
       </c>
     </row>
     <row r="76">
@@ -4538,7 +4538,7 @@
         <v>646</v>
       </c>
       <c r="H76" t="n">
-        <v>20</v>
+        <v>0.03095975232198142</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>8</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="N76" t="n">
-        <v>8</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="O76" t="n">
-        <v>4</v>
+        <v>0.006191950464396285</v>
       </c>
     </row>
     <row r="77">
@@ -4591,7 +4591,7 @@
         <v>880</v>
       </c>
       <c r="H77" t="n">
-        <v>28</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -4606,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>18</v>
+        <v>0.02045454545454545</v>
       </c>
       <c r="N77" t="n">
-        <v>13</v>
+        <v>0.01477272727272727</v>
       </c>
       <c r="O77" t="n">
-        <v>3</v>
+        <v>0.003409090909090909</v>
       </c>
     </row>
     <row r="78">
@@ -4644,7 +4644,7 @@
         <v>371</v>
       </c>
       <c r="H78" t="n">
-        <v>11</v>
+        <v>0.02964959568733154</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -4659,13 +4659,13 @@
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>0.01347708894878706</v>
       </c>
       <c r="N78" t="n">
-        <v>9</v>
+        <v>0.02425876010781671</v>
       </c>
       <c r="O78" t="n">
-        <v>2</v>
+        <v>0.005390835579514825</v>
       </c>
     </row>
     <row r="79">
@@ -4699,7 +4699,7 @@
         <v>649</v>
       </c>
       <c r="H79" t="n">
-        <v>22</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>9</v>
+        <v>0.01386748844375963</v>
       </c>
       <c r="N79" t="n">
-        <v>11</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="O79" t="n">
-        <v>2</v>
+        <v>0.003081664098613251</v>
       </c>
     </row>
     <row r="80">
@@ -4752,10 +4752,10 @@
         <v>588</v>
       </c>
       <c r="H80" t="n">
-        <v>21</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0.001700680272108843</v>
       </c>
       <c r="J80" t="n">
         <v>8</v>
@@ -4767,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>5</v>
+        <v>0.008503401360544218</v>
       </c>
       <c r="N80" t="n">
-        <v>9</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="O80" t="n">
-        <v>8</v>
+        <v>0.01360544217687075</v>
       </c>
     </row>
     <row r="81">
@@ -4806,10 +4806,10 @@
         <v>442</v>
       </c>
       <c r="H81" t="n">
-        <v>20</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0.002262443438914027</v>
       </c>
       <c r="J81" t="n">
         <v>8</v>
@@ -4824,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>12</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="O81" t="n">
-        <v>3</v>
+        <v>0.006787330316742082</v>
       </c>
     </row>
     <row r="82">
@@ -4859,10 +4859,10 @@
         <v>589</v>
       </c>
       <c r="H82" t="n">
-        <v>26</v>
+        <v>0.04414261460101868</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0.001697792869269949</v>
       </c>
       <c r="J82" t="n">
         <v>11</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>0.006791171477079796</v>
       </c>
       <c r="N82" t="n">
-        <v>15</v>
+        <v>0.02546689303904924</v>
       </c>
       <c r="O82" t="n">
-        <v>8</v>
+        <v>0.01358234295415959</v>
       </c>
     </row>
     <row r="83">
@@ -4913,10 +4913,10 @@
         <v>427</v>
       </c>
       <c r="H83" t="n">
-        <v>21</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0.00234192037470726</v>
       </c>
       <c r="J83" t="n">
         <v>5</v>
@@ -4928,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>5</v>
+        <v>0.0117096018735363</v>
       </c>
       <c r="N83" t="n">
-        <v>9</v>
+        <v>0.02107728337236534</v>
       </c>
       <c r="O83" t="n">
-        <v>3</v>
+        <v>0.00702576112412178</v>
       </c>
     </row>
     <row r="84">
@@ -4968,10 +4968,10 @@
         <v>931</v>
       </c>
       <c r="H84" t="n">
-        <v>28</v>
+        <v>0.03007518796992481</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0.001074113856068743</v>
       </c>
       <c r="J84" t="n">
         <v>8</v>
@@ -4983,13 +4983,13 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>6</v>
+        <v>0.00644468313641246</v>
       </c>
       <c r="N84" t="n">
-        <v>20</v>
+        <v>0.02148227712137487</v>
       </c>
       <c r="O84" t="n">
-        <v>11</v>
+        <v>0.01181525241675618</v>
       </c>
     </row>
     <row r="85">
@@ -5026,7 +5026,7 @@
         <v>907</v>
       </c>
       <c r="H85" t="n">
-        <v>39</v>
+        <v>0.04299889746416759</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -5041,13 +5041,13 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>6</v>
+        <v>0.006615214994487321</v>
       </c>
       <c r="N85" t="n">
-        <v>21</v>
+        <v>0.02315325248070562</v>
       </c>
       <c r="O85" t="n">
-        <v>14</v>
+        <v>0.01543550165380375</v>
       </c>
     </row>
     <row r="86">
@@ -5080,10 +5080,10 @@
         <v>524</v>
       </c>
       <c r="H86" t="n">
-        <v>28</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0.001908396946564885</v>
       </c>
       <c r="J86" t="n">
         <v>8</v>
@@ -5095,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>7</v>
+        <v>0.0133587786259542</v>
       </c>
       <c r="N86" t="n">
-        <v>11</v>
+        <v>0.02099236641221374</v>
       </c>
       <c r="O86" t="n">
-        <v>6</v>
+        <v>0.01145038167938931</v>
       </c>
     </row>
     <row r="87">
@@ -5133,7 +5133,7 @@
         <v>474</v>
       </c>
       <c r="H87" t="n">
-        <v>20</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -5148,13 +5148,13 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>5</v>
+        <v>0.01054852320675105</v>
       </c>
       <c r="N87" t="n">
-        <v>12</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="O87" t="n">
-        <v>8</v>
+        <v>0.01687763713080169</v>
       </c>
     </row>
   </sheetData>
